--- a/TestApp/bin/Debug/net6.0-windows/Resources/KFI_költségkövető_00312.xlsx
+++ b/TestApp/bin/Debug/net6.0-windows/Resources/KFI_költségkövető_00312.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felhasználó\Munka\!PROJEKTEK\2019-1.1.1-PIACI-KFI-2019-00312_Vesz-mont\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6952630-3E04-4A44-B565-49F142ABE0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF75A651-60A9-4440-9BA7-76FFC54C8C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4017,7 +4017,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6906" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6905" uniqueCount="332">
   <si>
     <t>Fennmaradó 
 egyenleg</t>
@@ -8443,7 +8443,7 @@
       <selection activeCell="H12" sqref="H12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
-      <autoFilter ref="A3:L77" xr:uid="{D31E420A-6E53-4600-B3C0-B0F1B784ABF5}"/>
+      <autoFilter ref="A3:L77" xr:uid="{ACE1DC67-0FF7-444C-8036-E377BF73A016}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
@@ -8466,11 +8466,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Munka2"/>
-  <dimension ref="A1:AF689"/>
+  <dimension ref="A1:AE689"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S11" sqref="S11"/>
+      <selection pane="bottomLeft" activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -8505,7 +8505,7 @@
     <col min="32" max="47" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>298</v>
       </c>
@@ -8527,11 +8527,11 @@
       <c r="W1" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AB1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="231"/>
       <c r="C2" s="231"/>
       <c r="D2" s="231"/>
@@ -8562,7 +8562,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:32" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="75"/>
       <c r="B3" s="76" t="s">
         <v>80</v>
@@ -8626,7 +8626,7 @@
       <c r="AD3" s="201"/>
       <c r="AE3" s="201"/>
     </row>
-    <row r="4" spans="1:32" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
         <v>91</v>
       </c>
@@ -8714,7 +8714,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="5" spans="1:32" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="79" t="s">
         <v>90</v>
       </c>
@@ -8784,9 +8784,6 @@
       <c r="AA5" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="AB5" s="5" t="s">
-        <v>146</v>
-      </c>
       <c r="AC5" s="203" t="s">
         <v>314</v>
       </c>
@@ -8797,7 +8794,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="6" spans="1:32" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="141">
         <v>1</v>
       </c>
@@ -8882,11 +8879,8 @@
       </c>
       <c r="Z6" s="12"/>
       <c r="AA6" s="12"/>
-      <c r="AB6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="141">
         <v>1</v>
       </c>
@@ -8971,11 +8965,8 @@
       </c>
       <c r="Z7" s="12"/>
       <c r="AA7" s="12"/>
-      <c r="AB7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="141">
         <v>1</v>
       </c>
@@ -9060,11 +9051,8 @@
       </c>
       <c r="Z8" s="12"/>
       <c r="AA8" s="12"/>
-      <c r="AB8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="141">
         <v>1</v>
       </c>
@@ -9149,11 +9137,8 @@
       </c>
       <c r="Z9" s="12"/>
       <c r="AA9" s="12"/>
-      <c r="AB9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="141">
         <v>1</v>
       </c>
@@ -9238,11 +9223,8 @@
       </c>
       <c r="Z10" s="12"/>
       <c r="AA10" s="12"/>
-      <c r="AB10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="141">
         <v>1</v>
       </c>
@@ -9327,11 +9309,8 @@
       </c>
       <c r="Z11" s="12"/>
       <c r="AA11" s="12"/>
-      <c r="AB11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="141">
         <v>1</v>
       </c>
@@ -9416,11 +9395,8 @@
       </c>
       <c r="Z12" s="12"/>
       <c r="AA12" s="12"/>
-      <c r="AB12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="141">
         <v>1</v>
       </c>
@@ -9505,11 +9481,8 @@
       </c>
       <c r="Z13" s="12"/>
       <c r="AA13" s="12"/>
-      <c r="AB13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="141">
         <v>1</v>
       </c>
@@ -9594,11 +9567,8 @@
       </c>
       <c r="Z14" s="12"/>
       <c r="AA14" s="12"/>
-      <c r="AB14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="141">
         <v>1</v>
       </c>
@@ -9683,11 +9653,8 @@
       </c>
       <c r="Z15" s="12"/>
       <c r="AA15" s="12"/>
-      <c r="AB15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="141">
         <v>2</v>
       </c>
@@ -9772,11 +9739,8 @@
       </c>
       <c r="Z16" s="12"/>
       <c r="AA16" s="12"/>
-      <c r="AB16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="141">
         <v>2</v>
       </c>
@@ -9861,11 +9825,8 @@
       </c>
       <c r="Z17" s="12"/>
       <c r="AA17" s="12"/>
-      <c r="AB17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="141">
         <v>2</v>
       </c>
@@ -9950,11 +9911,8 @@
       </c>
       <c r="Z18" s="12"/>
       <c r="AA18" s="12"/>
-      <c r="AB18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="141">
         <v>2</v>
       </c>
@@ -10039,11 +9997,8 @@
       </c>
       <c r="Z19" s="12"/>
       <c r="AA19" s="12"/>
-      <c r="AB19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="141">
         <v>2</v>
       </c>
@@ -10128,11 +10083,8 @@
       </c>
       <c r="Z20" s="12"/>
       <c r="AA20" s="12"/>
-      <c r="AB20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="141">
         <v>2</v>
       </c>
@@ -10217,11 +10169,8 @@
       </c>
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
-      <c r="AB21" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="141">
         <v>2</v>
       </c>
@@ -10306,11 +10255,8 @@
       </c>
       <c r="Z22" s="12"/>
       <c r="AA22" s="12"/>
-      <c r="AB22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="141">
         <v>2</v>
       </c>
@@ -10395,11 +10341,8 @@
       </c>
       <c r="Z23" s="12"/>
       <c r="AA23" s="12"/>
-      <c r="AB23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="141">
         <v>2</v>
       </c>
@@ -10484,11 +10427,8 @@
       </c>
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
-      <c r="AB24" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="141">
         <v>2</v>
       </c>
@@ -10573,11 +10513,8 @@
       </c>
       <c r="Z25" s="12"/>
       <c r="AA25" s="12"/>
-      <c r="AB25" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="141">
         <v>2</v>
       </c>
@@ -10662,11 +10599,8 @@
       </c>
       <c r="Z26" s="12"/>
       <c r="AA26" s="12"/>
-      <c r="AB26" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="141">
         <v>2</v>
       </c>
@@ -10751,11 +10685,8 @@
       </c>
       <c r="Z27" s="12"/>
       <c r="AA27" s="12"/>
-      <c r="AB27" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="141">
         <v>3</v>
       </c>
@@ -10840,11 +10771,8 @@
       </c>
       <c r="Z28" s="12"/>
       <c r="AA28" s="12"/>
-      <c r="AB28" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="141">
         <v>3</v>
       </c>
@@ -10929,11 +10857,8 @@
       </c>
       <c r="Z29" s="12"/>
       <c r="AA29" s="12"/>
-      <c r="AB29" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="141">
         <v>3</v>
       </c>
@@ -11018,11 +10943,8 @@
       </c>
       <c r="Z30" s="12"/>
       <c r="AA30" s="12"/>
-      <c r="AB30" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="141">
         <v>3</v>
       </c>
@@ -11107,11 +11029,8 @@
       </c>
       <c r="Z31" s="12"/>
       <c r="AA31" s="12"/>
-      <c r="AB31" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="141">
         <v>3</v>
       </c>
@@ -11196,9 +11115,6 @@
       </c>
       <c r="Z32" s="12"/>
       <c r="AA32" s="12"/>
-      <c r="AB32" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="33" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="141"/>
@@ -11285,9 +11201,6 @@
       </c>
       <c r="Z33" s="12"/>
       <c r="AA33" s="12"/>
-      <c r="AB33" s="3">
-        <v>1</v>
-      </c>
       <c r="AC33" s="3" t="s">
         <v>315</v>
       </c>
@@ -11469,9 +11382,6 @@
       </c>
       <c r="Z35" s="12"/>
       <c r="AA35" s="12"/>
-      <c r="AB35" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="36" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="141">
@@ -11558,9 +11468,6 @@
       </c>
       <c r="Z36" s="12"/>
       <c r="AA36" s="12"/>
-      <c r="AB36" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="37" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="141">
@@ -11646,9 +11553,6 @@
       </c>
       <c r="Z37" s="12"/>
       <c r="AA37" s="12"/>
-      <c r="AB37" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="38" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="141">
@@ -11735,9 +11639,6 @@
       </c>
       <c r="Z38" s="12"/>
       <c r="AA38" s="12"/>
-      <c r="AB38" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="39" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="141">
@@ -11824,9 +11725,6 @@
       </c>
       <c r="Z39" s="12"/>
       <c r="AA39" s="12"/>
-      <c r="AB39" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="40" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="141">
@@ -11912,9 +11810,6 @@
       </c>
       <c r="Z40" s="12"/>
       <c r="AA40" s="12"/>
-      <c r="AB40" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="41" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="141">
@@ -12000,9 +11895,6 @@
       </c>
       <c r="Z41" s="12"/>
       <c r="AA41" s="12"/>
-      <c r="AB41" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="42" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="141">
@@ -12088,9 +11980,6 @@
       </c>
       <c r="Z42" s="12"/>
       <c r="AA42" s="12"/>
-      <c r="AB42" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="43" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="141">
@@ -12176,9 +12065,6 @@
       </c>
       <c r="Z43" s="12"/>
       <c r="AA43" s="12"/>
-      <c r="AB43" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="44" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="141">
@@ -12265,9 +12151,6 @@
       </c>
       <c r="Z44" s="12"/>
       <c r="AA44" s="12"/>
-      <c r="AB44" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="45" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="141">
@@ -12354,9 +12237,6 @@
       </c>
       <c r="Z45" s="12"/>
       <c r="AA45" s="12"/>
-      <c r="AB45" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="46" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="141">
@@ -12443,9 +12323,6 @@
       </c>
       <c r="Z46" s="12"/>
       <c r="AA46" s="12"/>
-      <c r="AB46" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="47" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="141">
@@ -12532,9 +12409,6 @@
       </c>
       <c r="Z47" s="12"/>
       <c r="AA47" s="12"/>
-      <c r="AB47" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="48" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="141">
@@ -12620,9 +12494,6 @@
       </c>
       <c r="Z48" s="12"/>
       <c r="AA48" s="12"/>
-      <c r="AB48" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="49" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="141">
@@ -12708,9 +12579,6 @@
       </c>
       <c r="Z49" s="12"/>
       <c r="AA49" s="12"/>
-      <c r="AB49" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="50" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="141">
@@ -12797,9 +12665,6 @@
       </c>
       <c r="Z50" s="12"/>
       <c r="AA50" s="12"/>
-      <c r="AB50" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="51" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="141">
@@ -12886,9 +12751,6 @@
       </c>
       <c r="Z51" s="12"/>
       <c r="AA51" s="12"/>
-      <c r="AB51" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="52" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="141">
@@ -12975,9 +12837,6 @@
       </c>
       <c r="Z52" s="12"/>
       <c r="AA52" s="12"/>
-      <c r="AB52" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="53" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="141">
@@ -13064,9 +12923,6 @@
       </c>
       <c r="Z53" s="12"/>
       <c r="AA53" s="12"/>
-      <c r="AB53" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="54" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="141">
@@ -13153,9 +13009,6 @@
       </c>
       <c r="Z54" s="12"/>
       <c r="AA54" s="12"/>
-      <c r="AB54" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="55" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="141">
@@ -13242,9 +13095,6 @@
       </c>
       <c r="Z55" s="12"/>
       <c r="AA55" s="12"/>
-      <c r="AB55" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="56" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="141">
@@ -13331,9 +13181,6 @@
       </c>
       <c r="Z56" s="12"/>
       <c r="AA56" s="12"/>
-      <c r="AB56" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="57" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="141">
@@ -13420,9 +13267,6 @@
       </c>
       <c r="Z57" s="12"/>
       <c r="AA57" s="12"/>
-      <c r="AB57" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="58" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="141">
@@ -13509,9 +13353,6 @@
       </c>
       <c r="Z58" s="12"/>
       <c r="AA58" s="12"/>
-      <c r="AB58" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="59" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="141">
@@ -13598,9 +13439,6 @@
       </c>
       <c r="Z59" s="12"/>
       <c r="AA59" s="12"/>
-      <c r="AB59" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="60" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="141">
@@ -13689,9 +13527,6 @@
       </c>
       <c r="Z60" s="12"/>
       <c r="AA60" s="12"/>
-      <c r="AB60" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="61" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="141">
@@ -13780,9 +13615,6 @@
       </c>
       <c r="Z61" s="12"/>
       <c r="AA61" s="12"/>
-      <c r="AB61" s="3">
-        <v>1</v>
-      </c>
       <c r="AC61" s="204" t="s">
         <v>315</v>
       </c>
@@ -13880,9 +13712,6 @@
       </c>
       <c r="Z62" s="12"/>
       <c r="AA62" s="12"/>
-      <c r="AB62" s="3">
-        <v>1</v>
-      </c>
       <c r="AC62" s="204" t="s">
         <v>315</v>
       </c>
@@ -13978,9 +13807,6 @@
       </c>
       <c r="Z63" s="12"/>
       <c r="AA63" s="12"/>
-      <c r="AB63" s="3">
-        <v>1</v>
-      </c>
       <c r="AC63" s="3" t="s">
         <v>315</v>
       </c>
@@ -14076,9 +13902,6 @@
       </c>
       <c r="Z64" s="12"/>
       <c r="AA64" s="12"/>
-      <c r="AB64" s="3">
-        <v>1</v>
-      </c>
       <c r="AC64" s="3" t="s">
         <v>315</v>
       </c>
@@ -14089,7 +13912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="141"/>
       <c r="B65" s="99" t="s">
         <v>137</v>
@@ -14175,7 +13998,7 @@
       <c r="Z65" s="12"/>
       <c r="AA65" s="12"/>
     </row>
-    <row r="66" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="141">
         <v>1</v>
       </c>
@@ -14260,11 +14083,8 @@
       </c>
       <c r="Z66" s="12"/>
       <c r="AA66" s="12"/>
-      <c r="AB66" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="141">
         <v>1</v>
       </c>
@@ -14349,11 +14169,8 @@
       </c>
       <c r="Z67" s="12"/>
       <c r="AA67" s="12"/>
-      <c r="AB67" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="141">
         <v>1</v>
       </c>
@@ -14438,11 +14255,8 @@
       </c>
       <c r="Z68" s="12"/>
       <c r="AA68" s="12"/>
-      <c r="AB68" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="141">
         <v>1</v>
       </c>
@@ -14527,11 +14341,8 @@
       </c>
       <c r="Z69" s="12"/>
       <c r="AA69" s="12"/>
-      <c r="AB69" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="141">
         <v>2</v>
       </c>
@@ -14616,11 +14427,8 @@
       </c>
       <c r="Z70" s="12"/>
       <c r="AA70" s="12"/>
-      <c r="AB70" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="141">
         <v>2</v>
       </c>
@@ -14705,11 +14513,8 @@
       </c>
       <c r="Z71" s="12"/>
       <c r="AA71" s="12"/>
-      <c r="AB71" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="141">
         <v>2</v>
       </c>
@@ -14794,11 +14599,8 @@
       </c>
       <c r="Z72" s="12"/>
       <c r="AA72" s="12"/>
-      <c r="AB72" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="141">
         <v>2</v>
       </c>
@@ -14883,11 +14685,8 @@
       </c>
       <c r="Z73" s="12"/>
       <c r="AA73" s="12"/>
-      <c r="AB73" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="141">
         <v>2</v>
       </c>
@@ -14972,11 +14771,8 @@
       </c>
       <c r="Z74" s="12"/>
       <c r="AA74" s="12"/>
-      <c r="AB74" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="141">
         <v>2</v>
       </c>
@@ -15061,11 +14857,8 @@
       </c>
       <c r="Z75" s="12"/>
       <c r="AA75" s="12"/>
-      <c r="AB75" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="141">
         <v>2</v>
       </c>
@@ -15150,11 +14943,8 @@
       </c>
       <c r="Z76" s="12"/>
       <c r="AA76" s="12"/>
-      <c r="AB76" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="141">
         <v>2</v>
       </c>
@@ -15239,11 +15029,8 @@
       </c>
       <c r="Z77" s="12"/>
       <c r="AA77" s="12"/>
-      <c r="AB77" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="141">
         <v>2</v>
       </c>
@@ -15328,11 +15115,8 @@
       </c>
       <c r="Z78" s="12"/>
       <c r="AA78" s="12"/>
-      <c r="AB78" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="141">
         <v>2</v>
       </c>
@@ -15416,11 +15200,8 @@
       </c>
       <c r="Z79" s="12"/>
       <c r="AA79" s="12"/>
-      <c r="AB79" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="141">
         <v>2</v>
       </c>
@@ -15504,9 +15285,6 @@
       </c>
       <c r="Z80" s="12"/>
       <c r="AA80" s="12"/>
-      <c r="AB80" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="81" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="141">
@@ -15593,9 +15371,6 @@
       </c>
       <c r="Z81" s="12"/>
       <c r="AA81" s="12"/>
-      <c r="AB81" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="82" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="141">
@@ -15682,9 +15457,6 @@
       </c>
       <c r="Z82" s="12"/>
       <c r="AA82" s="12"/>
-      <c r="AB82" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="83" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="141">
@@ -15771,9 +15543,6 @@
       </c>
       <c r="Z83" s="12"/>
       <c r="AA83" s="12"/>
-      <c r="AB83" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="84" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="141">
@@ -15860,9 +15629,6 @@
       </c>
       <c r="Z84" s="12"/>
       <c r="AA84" s="12"/>
-      <c r="AB84" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="85" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="141">
@@ -15949,9 +15715,6 @@
       </c>
       <c r="Z85" s="12"/>
       <c r="AA85" s="12"/>
-      <c r="AB85" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="86" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="141">
@@ -16038,9 +15801,6 @@
       </c>
       <c r="Z86" s="12"/>
       <c r="AA86" s="12"/>
-      <c r="AB86" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="87" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="141">
@@ -16127,9 +15887,6 @@
       </c>
       <c r="Z87" s="12"/>
       <c r="AA87" s="12"/>
-      <c r="AB87" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="88" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="141">
@@ -16216,9 +15973,6 @@
       </c>
       <c r="Z88" s="12"/>
       <c r="AA88" s="12"/>
-      <c r="AB88" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="89" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="141">
@@ -16305,9 +16059,6 @@
       </c>
       <c r="Z89" s="12"/>
       <c r="AA89" s="12"/>
-      <c r="AB89" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="90" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="141">
@@ -16394,9 +16145,6 @@
       </c>
       <c r="Z90" s="12"/>
       <c r="AA90" s="12"/>
-      <c r="AB90" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="91" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="141">
@@ -16485,9 +16233,6 @@
       </c>
       <c r="Z91" s="12"/>
       <c r="AA91" s="12"/>
-      <c r="AB91" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="92" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="141">
@@ -16576,9 +16321,6 @@
       </c>
       <c r="Z92" s="12"/>
       <c r="AA92" s="12"/>
-      <c r="AB92" s="3">
-        <v>1</v>
-      </c>
       <c r="AC92" s="204" t="s">
         <v>315</v>
       </c>
@@ -16676,9 +16418,6 @@
       </c>
       <c r="Z93" s="12"/>
       <c r="AA93" s="12"/>
-      <c r="AB93" s="3">
-        <v>1</v>
-      </c>
       <c r="AC93" s="204" t="s">
         <v>315</v>
       </c>
@@ -16774,9 +16513,6 @@
       </c>
       <c r="Z94" s="12"/>
       <c r="AA94" s="12"/>
-      <c r="AB94" s="3">
-        <v>1</v>
-      </c>
       <c r="AC94" s="3" t="s">
         <v>315</v>
       </c>
@@ -16872,9 +16608,6 @@
       </c>
       <c r="Z95" s="12"/>
       <c r="AA95" s="12"/>
-      <c r="AB95" s="3">
-        <v>1</v>
-      </c>
       <c r="AC95" s="3" t="s">
         <v>315</v>
       </c>
@@ -17056,9 +16789,6 @@
       </c>
       <c r="Z97" s="12"/>
       <c r="AA97" s="12"/>
-      <c r="AB97" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="98" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="141">
@@ -17145,9 +16875,6 @@
       </c>
       <c r="Z98" s="12"/>
       <c r="AA98" s="12"/>
-      <c r="AB98" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="99" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="141">
@@ -17236,9 +16963,6 @@
       </c>
       <c r="Z99" s="12"/>
       <c r="AA99" s="12"/>
-      <c r="AB99" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="100" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="141">
@@ -17327,9 +17051,6 @@
       </c>
       <c r="Z100" s="12"/>
       <c r="AA100" s="12"/>
-      <c r="AB100" s="3">
-        <v>1</v>
-      </c>
       <c r="AC100" s="204" t="s">
         <v>315</v>
       </c>
@@ -17427,9 +17148,6 @@
       </c>
       <c r="Z101" s="12"/>
       <c r="AA101" s="12"/>
-      <c r="AB101" s="3">
-        <v>1</v>
-      </c>
       <c r="AC101" s="204" t="s">
         <v>315</v>
       </c>
@@ -17525,9 +17243,6 @@
       </c>
       <c r="Z102" s="12"/>
       <c r="AA102" s="12"/>
-      <c r="AB102" s="3">
-        <v>1</v>
-      </c>
       <c r="AC102" s="3" t="s">
         <v>315</v>
       </c>
@@ -17623,9 +17338,6 @@
       </c>
       <c r="Z103" s="12"/>
       <c r="AA103" s="12"/>
-      <c r="AB103" s="3">
-        <v>1</v>
-      </c>
       <c r="AC103" s="3" t="s">
         <v>315</v>
       </c>
@@ -17806,9 +17518,6 @@
       </c>
       <c r="Z105" s="12"/>
       <c r="AA105" s="12"/>
-      <c r="AB105" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="106" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="141">
@@ -17895,9 +17604,6 @@
       </c>
       <c r="Z106" s="12"/>
       <c r="AA106" s="12"/>
-      <c r="AB106" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="107" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="141">
@@ -17984,9 +17690,6 @@
       </c>
       <c r="Z107" s="12"/>
       <c r="AA107" s="12"/>
-      <c r="AB107" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="108" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="141">
@@ -18073,9 +17776,6 @@
       </c>
       <c r="Z108" s="12"/>
       <c r="AA108" s="12"/>
-      <c r="AB108" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="109" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="141">
@@ -18162,9 +17862,6 @@
       </c>
       <c r="Z109" s="12"/>
       <c r="AA109" s="12"/>
-      <c r="AB109" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="110" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="141">
@@ -18251,9 +17948,6 @@
       </c>
       <c r="Z110" s="12"/>
       <c r="AA110" s="12"/>
-      <c r="AB110" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="111" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="141">
@@ -18340,9 +18034,6 @@
       </c>
       <c r="Z111" s="12"/>
       <c r="AA111" s="12"/>
-      <c r="AB111" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="112" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="141">
@@ -18431,9 +18122,6 @@
       </c>
       <c r="Z112" s="12"/>
       <c r="AA112" s="12"/>
-      <c r="AB112" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="113" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="141">
@@ -18522,9 +18210,6 @@
       </c>
       <c r="Z113" s="12"/>
       <c r="AA113" s="12"/>
-      <c r="AB113" s="3">
-        <v>1</v>
-      </c>
       <c r="AC113" s="204" t="s">
         <v>315</v>
       </c>
@@ -18622,9 +18307,6 @@
       </c>
       <c r="Z114" s="12"/>
       <c r="AA114" s="12"/>
-      <c r="AB114" s="3">
-        <v>1</v>
-      </c>
       <c r="AC114" s="204" t="s">
         <v>315</v>
       </c>
@@ -18720,9 +18402,6 @@
       </c>
       <c r="Z115" s="12"/>
       <c r="AA115" s="12"/>
-      <c r="AB115" s="3">
-        <v>1</v>
-      </c>
       <c r="AC115" s="3" t="s">
         <v>315</v>
       </c>
@@ -18818,9 +18497,6 @@
       </c>
       <c r="Z116" s="12"/>
       <c r="AA116" s="12"/>
-      <c r="AB116" s="3">
-        <v>1</v>
-      </c>
       <c r="AC116" s="3" t="s">
         <v>315</v>
       </c>
@@ -19002,9 +18678,6 @@
       </c>
       <c r="Z118" s="12"/>
       <c r="AA118" s="12"/>
-      <c r="AB118" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="119" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="141">
@@ -19091,9 +18764,6 @@
       </c>
       <c r="Z119" s="12"/>
       <c r="AA119" s="12"/>
-      <c r="AB119" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="120" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="141">
@@ -19180,9 +18850,6 @@
       </c>
       <c r="Z120" s="12"/>
       <c r="AA120" s="12"/>
-      <c r="AB120" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="121" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="141">
@@ -19269,9 +18936,6 @@
       </c>
       <c r="Z121" s="12"/>
       <c r="AA121" s="12"/>
-      <c r="AB121" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="122" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="141">
@@ -19358,9 +19022,6 @@
       </c>
       <c r="Z122" s="12"/>
       <c r="AA122" s="12"/>
-      <c r="AB122" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="123" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="141">
@@ -19447,9 +19108,6 @@
       </c>
       <c r="Z123" s="12"/>
       <c r="AA123" s="12"/>
-      <c r="AB123" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="124" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="141">
@@ -19536,9 +19194,6 @@
       </c>
       <c r="Z124" s="12"/>
       <c r="AA124" s="12"/>
-      <c r="AB124" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="125" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="141">
@@ -19625,9 +19280,6 @@
       </c>
       <c r="Z125" s="12"/>
       <c r="AA125" s="12"/>
-      <c r="AB125" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="126" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="141">
@@ -19714,9 +19366,6 @@
       </c>
       <c r="Z126" s="12"/>
       <c r="AA126" s="12"/>
-      <c r="AB126" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="127" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="141">
@@ -19803,9 +19452,6 @@
       </c>
       <c r="Z127" s="12"/>
       <c r="AA127" s="12"/>
-      <c r="AB127" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="128" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="141">
@@ -19892,9 +19538,6 @@
       </c>
       <c r="Z128" s="12"/>
       <c r="AA128" s="12"/>
-      <c r="AB128" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="129" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="141">
@@ -19981,9 +19624,6 @@
       </c>
       <c r="Z129" s="12"/>
       <c r="AA129" s="12"/>
-      <c r="AB129" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="130" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="141">
@@ -20070,9 +19710,6 @@
       </c>
       <c r="Z130" s="12"/>
       <c r="AA130" s="12"/>
-      <c r="AB130" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="131" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="141">
@@ -20159,9 +19796,6 @@
       </c>
       <c r="Z131" s="12"/>
       <c r="AA131" s="12"/>
-      <c r="AB131" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="132" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="141">
@@ -20248,9 +19882,6 @@
       </c>
       <c r="Z132" s="12"/>
       <c r="AA132" s="12"/>
-      <c r="AB132" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="133" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="141">
@@ -20337,9 +19968,6 @@
       </c>
       <c r="Z133" s="12"/>
       <c r="AA133" s="12"/>
-      <c r="AB133" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="134" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="141">
@@ -20428,9 +20056,6 @@
       </c>
       <c r="Z134" s="12"/>
       <c r="AA134" s="12"/>
-      <c r="AB134" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="135" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="141">
@@ -20519,9 +20144,6 @@
       </c>
       <c r="Z135" s="12"/>
       <c r="AA135" s="12"/>
-      <c r="AB135" s="3">
-        <v>1</v>
-      </c>
       <c r="AC135" s="204" t="s">
         <v>315</v>
       </c>
@@ -20619,9 +20241,6 @@
       </c>
       <c r="Z136" s="12"/>
       <c r="AA136" s="12"/>
-      <c r="AB136" s="3">
-        <v>1</v>
-      </c>
       <c r="AC136" s="204" t="s">
         <v>315</v>
       </c>
@@ -20717,9 +20336,6 @@
       </c>
       <c r="Z137" s="12"/>
       <c r="AA137" s="12"/>
-      <c r="AB137" s="3">
-        <v>1</v>
-      </c>
       <c r="AC137" s="3" t="s">
         <v>315</v>
       </c>
@@ -20815,9 +20431,6 @@
       </c>
       <c r="Z138" s="12"/>
       <c r="AA138" s="12"/>
-      <c r="AB138" s="3">
-        <v>1</v>
-      </c>
       <c r="AC138" s="3" t="s">
         <v>315</v>
       </c>
@@ -20999,9 +20612,6 @@
       </c>
       <c r="Z140" s="12"/>
       <c r="AA140" s="12"/>
-      <c r="AB140" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="141" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="141">
@@ -21088,9 +20698,6 @@
       </c>
       <c r="Z141" s="12"/>
       <c r="AA141" s="12"/>
-      <c r="AB141" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="142" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="141">
@@ -21177,9 +20784,6 @@
       </c>
       <c r="Z142" s="12"/>
       <c r="AA142" s="12"/>
-      <c r="AB142" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="143" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="141">
@@ -21266,9 +20870,6 @@
       </c>
       <c r="Z143" s="12"/>
       <c r="AA143" s="12"/>
-      <c r="AB143" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="144" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="141">
@@ -21355,11 +20956,8 @@
       </c>
       <c r="Z144" s="12"/>
       <c r="AA144" s="12"/>
-      <c r="AB144" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="141">
         <v>1</v>
       </c>
@@ -21444,11 +21042,8 @@
       </c>
       <c r="Z145" s="12"/>
       <c r="AA145" s="12"/>
-      <c r="AB145" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="141">
         <v>1</v>
       </c>
@@ -21533,11 +21128,8 @@
       </c>
       <c r="Z146" s="12"/>
       <c r="AA146" s="12"/>
-      <c r="AB146" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="141">
         <v>1</v>
       </c>
@@ -21622,11 +21214,8 @@
       </c>
       <c r="Z147" s="12"/>
       <c r="AA147" s="12"/>
-      <c r="AB147" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="141">
         <v>2</v>
       </c>
@@ -21711,11 +21300,8 @@
       </c>
       <c r="Z148" s="12"/>
       <c r="AA148" s="12"/>
-      <c r="AB148" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="141">
         <v>2</v>
       </c>
@@ -21800,11 +21386,8 @@
       </c>
       <c r="Z149" s="12"/>
       <c r="AA149" s="12"/>
-      <c r="AB149" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="141">
         <v>2</v>
       </c>
@@ -21889,11 +21472,8 @@
       </c>
       <c r="Z150" s="12"/>
       <c r="AA150" s="12"/>
-      <c r="AB150" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="141">
         <v>2</v>
       </c>
@@ -21978,11 +21558,8 @@
       </c>
       <c r="Z151" s="12"/>
       <c r="AA151" s="12"/>
-      <c r="AB151" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="141">
         <v>2</v>
       </c>
@@ -22067,11 +21644,8 @@
       </c>
       <c r="Z152" s="12"/>
       <c r="AA152" s="12"/>
-      <c r="AB152" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="141">
         <v>2</v>
       </c>
@@ -22156,11 +21730,8 @@
       </c>
       <c r="Z153" s="12"/>
       <c r="AA153" s="12"/>
-      <c r="AB153" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="141">
         <v>2</v>
       </c>
@@ -22245,11 +21816,8 @@
       </c>
       <c r="Z154" s="12"/>
       <c r="AA154" s="12"/>
-      <c r="AB154" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="141">
         <v>2</v>
       </c>
@@ -22334,11 +21902,8 @@
       </c>
       <c r="Z155" s="12"/>
       <c r="AA155" s="12"/>
-      <c r="AB155" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="141">
         <v>2</v>
       </c>
@@ -22423,11 +21988,8 @@
       </c>
       <c r="Z156" s="12"/>
       <c r="AA156" s="12"/>
-      <c r="AB156" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="141">
         <v>2</v>
       </c>
@@ -22512,11 +22074,8 @@
       </c>
       <c r="Z157" s="12"/>
       <c r="AA157" s="12"/>
-      <c r="AB157" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="141">
         <v>2</v>
       </c>
@@ -22601,11 +22160,8 @@
       </c>
       <c r="Z158" s="12"/>
       <c r="AA158" s="12"/>
-      <c r="AB158" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="141">
         <v>3</v>
       </c>
@@ -22690,11 +22246,8 @@
       </c>
       <c r="Z159" s="12"/>
       <c r="AA159" s="12"/>
-      <c r="AB159" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="141">
         <v>3</v>
       </c>
@@ -22779,9 +22332,6 @@
       </c>
       <c r="Z160" s="12"/>
       <c r="AA160" s="12"/>
-      <c r="AB160" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="161" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="141">
@@ -22868,9 +22418,6 @@
       </c>
       <c r="Z161" s="12"/>
       <c r="AA161" s="12"/>
-      <c r="AB161" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="162" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="141">
@@ -22957,9 +22504,6 @@
       </c>
       <c r="Z162" s="12"/>
       <c r="AA162" s="12"/>
-      <c r="AB162" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="163" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="141">
@@ -23046,9 +22590,6 @@
       </c>
       <c r="Z163" s="12"/>
       <c r="AA163" s="12"/>
-      <c r="AB163" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="164" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="141">
@@ -23135,9 +22676,6 @@
       </c>
       <c r="Z164" s="12"/>
       <c r="AA164" s="12"/>
-      <c r="AB164" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="165" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="141">
@@ -23224,9 +22762,6 @@
       </c>
       <c r="Z165" s="12"/>
       <c r="AA165" s="12"/>
-      <c r="AB165" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="166" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="141">
@@ -23315,9 +22850,6 @@
       </c>
       <c r="Z166" s="12"/>
       <c r="AA166" s="12"/>
-      <c r="AB166" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="167" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="141">
@@ -23406,9 +22938,6 @@
       </c>
       <c r="Z167" s="12"/>
       <c r="AA167" s="12"/>
-      <c r="AB167" s="3">
-        <v>1</v>
-      </c>
       <c r="AC167" s="204" t="s">
         <v>315</v>
       </c>
@@ -23506,9 +23035,6 @@
       </c>
       <c r="Z168" s="12"/>
       <c r="AA168" s="12"/>
-      <c r="AB168" s="3">
-        <v>1</v>
-      </c>
       <c r="AC168" s="204" t="s">
         <v>315</v>
       </c>
@@ -23603,9 +23129,6 @@
       </c>
       <c r="Z169" s="12"/>
       <c r="AA169" s="12"/>
-      <c r="AB169" s="3">
-        <v>1</v>
-      </c>
       <c r="AC169" s="3" t="s">
         <v>315</v>
       </c>
@@ -23700,9 +23223,6 @@
       </c>
       <c r="Z170" s="12"/>
       <c r="AA170" s="12"/>
-      <c r="AB170" s="3">
-        <v>1</v>
-      </c>
       <c r="AC170" s="3" t="s">
         <v>315</v>
       </c>
@@ -23883,9 +23403,6 @@
       </c>
       <c r="Z172" s="12"/>
       <c r="AA172" s="12"/>
-      <c r="AB172" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="173" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="141">
@@ -23972,9 +23489,6 @@
       </c>
       <c r="Z173" s="12"/>
       <c r="AA173" s="12"/>
-      <c r="AB173" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="174" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="141">
@@ -24061,9 +23575,6 @@
       </c>
       <c r="Z174" s="12"/>
       <c r="AA174" s="12"/>
-      <c r="AB174" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="175" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="141">
@@ -24150,9 +23661,6 @@
       </c>
       <c r="Z175" s="12"/>
       <c r="AA175" s="12"/>
-      <c r="AB175" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="176" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="141">
@@ -24239,11 +23747,8 @@
       </c>
       <c r="Z176" s="12"/>
       <c r="AA176" s="12"/>
-      <c r="AB176" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="141">
         <v>2</v>
       </c>
@@ -24328,11 +23833,8 @@
       </c>
       <c r="Z177" s="12"/>
       <c r="AA177" s="12"/>
-      <c r="AB177" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="141">
         <v>2</v>
       </c>
@@ -24417,11 +23919,8 @@
       </c>
       <c r="Z178" s="12"/>
       <c r="AA178" s="12"/>
-      <c r="AB178" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="141">
         <v>2</v>
       </c>
@@ -24506,11 +24005,8 @@
       </c>
       <c r="Z179" s="12"/>
       <c r="AA179" s="12"/>
-      <c r="AB179" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="141">
         <v>2</v>
       </c>
@@ -24595,11 +24091,8 @@
       </c>
       <c r="Z180" s="12"/>
       <c r="AA180" s="12"/>
-      <c r="AB180" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="141">
         <v>2</v>
       </c>
@@ -24684,11 +24177,8 @@
       </c>
       <c r="Z181" s="12"/>
       <c r="AA181" s="12"/>
-      <c r="AB181" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="141">
         <v>2</v>
       </c>
@@ -24773,11 +24263,8 @@
       </c>
       <c r="Z182" s="12"/>
       <c r="AA182" s="12"/>
-      <c r="AB182" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="141">
         <v>2</v>
       </c>
@@ -24862,11 +24349,8 @@
       </c>
       <c r="Z183" s="12"/>
       <c r="AA183" s="12"/>
-      <c r="AB183" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="141">
         <v>2</v>
       </c>
@@ -24951,11 +24435,8 @@
       </c>
       <c r="Z184" s="12"/>
       <c r="AA184" s="12"/>
-      <c r="AB184" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="141">
         <v>2</v>
       </c>
@@ -25040,11 +24521,8 @@
       </c>
       <c r="Z185" s="12"/>
       <c r="AA185" s="12"/>
-      <c r="AB185" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="141">
         <v>2</v>
       </c>
@@ -25129,11 +24607,8 @@
       </c>
       <c r="Z186" s="12"/>
       <c r="AA186" s="12"/>
-      <c r="AB186" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="141">
         <v>2</v>
       </c>
@@ -25218,11 +24693,8 @@
       </c>
       <c r="Z187" s="12"/>
       <c r="AA187" s="12"/>
-      <c r="AB187" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="141">
         <v>2</v>
       </c>
@@ -25307,11 +24779,8 @@
       </c>
       <c r="Z188" s="12"/>
       <c r="AA188" s="12"/>
-      <c r="AB188" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="141">
         <v>3</v>
       </c>
@@ -25396,11 +24865,8 @@
       </c>
       <c r="Z189" s="12"/>
       <c r="AA189" s="12"/>
-      <c r="AB189" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="141">
         <v>2</v>
       </c>
@@ -25485,11 +24951,8 @@
       </c>
       <c r="Z190" s="12"/>
       <c r="AA190" s="12"/>
-      <c r="AB190" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="141">
         <v>2</v>
       </c>
@@ -25574,11 +25037,8 @@
       </c>
       <c r="Z191" s="12"/>
       <c r="AA191" s="12"/>
-      <c r="AB191" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="141">
         <v>2</v>
       </c>
@@ -25663,9 +25123,6 @@
       </c>
       <c r="Z192" s="12"/>
       <c r="AA192" s="12"/>
-      <c r="AB192" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="193" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="141">
@@ -25752,9 +25209,6 @@
       </c>
       <c r="Z193" s="12"/>
       <c r="AA193" s="12"/>
-      <c r="AB193" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="194" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="141">
@@ -25841,9 +25295,6 @@
       </c>
       <c r="Z194" s="12"/>
       <c r="AA194" s="12"/>
-      <c r="AB194" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="195" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="141">
@@ -25930,9 +25381,6 @@
       </c>
       <c r="Z195" s="12"/>
       <c r="AA195" s="12"/>
-      <c r="AB195" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="196" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="141">
@@ -26019,9 +25467,6 @@
       </c>
       <c r="Z196" s="12"/>
       <c r="AA196" s="12"/>
-      <c r="AB196" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="197" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="141">
@@ -26108,9 +25553,6 @@
       </c>
       <c r="Z197" s="12"/>
       <c r="AA197" s="12"/>
-      <c r="AB197" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="198" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="141">
@@ -26197,9 +25639,6 @@
       </c>
       <c r="Z198" s="12"/>
       <c r="AA198" s="12"/>
-      <c r="AB198" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="199" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="141">
@@ -26286,9 +25725,6 @@
       </c>
       <c r="Z199" s="12"/>
       <c r="AA199" s="12"/>
-      <c r="AB199" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="200" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="141">
@@ -26375,9 +25811,6 @@
       </c>
       <c r="Z200" s="12"/>
       <c r="AA200" s="12"/>
-      <c r="AB200" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="201" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="141">
@@ -26464,9 +25897,6 @@
       </c>
       <c r="Z201" s="12"/>
       <c r="AA201" s="12"/>
-      <c r="AB201" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="202" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="141">
@@ -26553,9 +25983,6 @@
       </c>
       <c r="Z202" s="12"/>
       <c r="AA202" s="12"/>
-      <c r="AB202" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="203" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="141">
@@ -26642,9 +26069,6 @@
       </c>
       <c r="Z203" s="12"/>
       <c r="AA203" s="12"/>
-      <c r="AB203" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="204" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="141">
@@ -26733,9 +26157,6 @@
       </c>
       <c r="Z204" s="12"/>
       <c r="AA204" s="12"/>
-      <c r="AB204" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="205" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="141">
@@ -26824,9 +26245,6 @@
       </c>
       <c r="Z205" s="12"/>
       <c r="AA205" s="12"/>
-      <c r="AB205" s="3">
-        <v>1</v>
-      </c>
       <c r="AC205" s="204" t="s">
         <v>315</v>
       </c>
@@ -26924,9 +26342,6 @@
       </c>
       <c r="Z206" s="12"/>
       <c r="AA206" s="12"/>
-      <c r="AB206" s="3">
-        <v>1</v>
-      </c>
       <c r="AC206" s="204" t="s">
         <v>315</v>
       </c>
@@ -27022,9 +26437,6 @@
       </c>
       <c r="Z207" s="12"/>
       <c r="AA207" s="12"/>
-      <c r="AB207" s="3">
-        <v>1</v>
-      </c>
       <c r="AC207" s="3" t="s">
         <v>315</v>
       </c>
@@ -27120,9 +26532,6 @@
       </c>
       <c r="Z208" s="12"/>
       <c r="AA208" s="12"/>
-      <c r="AB208" s="3">
-        <v>1</v>
-      </c>
       <c r="AC208" s="3" t="s">
         <v>315</v>
       </c>
@@ -27304,9 +26713,6 @@
       </c>
       <c r="Z210" s="12"/>
       <c r="AA210" s="12"/>
-      <c r="AB210" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="211" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="141">
@@ -27393,9 +26799,6 @@
       </c>
       <c r="Z211" s="12"/>
       <c r="AA211" s="12"/>
-      <c r="AB211" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="212" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="141">
@@ -27482,9 +26885,6 @@
       </c>
       <c r="Z212" s="12"/>
       <c r="AA212" s="12"/>
-      <c r="AB212" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="213" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="141">
@@ -27571,9 +26971,6 @@
       </c>
       <c r="Z213" s="12"/>
       <c r="AA213" s="12"/>
-      <c r="AB213" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="214" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="141">
@@ -27662,9 +27059,6 @@
       </c>
       <c r="Z214" s="12"/>
       <c r="AA214" s="12"/>
-      <c r="AB214" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="215" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="141">
@@ -27753,9 +27147,6 @@
       </c>
       <c r="Z215" s="12"/>
       <c r="AA215" s="12"/>
-      <c r="AB215" s="3">
-        <v>1</v>
-      </c>
       <c r="AC215" s="204" t="s">
         <v>315</v>
       </c>
@@ -27851,9 +27242,6 @@
       </c>
       <c r="Z216" s="12"/>
       <c r="AA216" s="12"/>
-      <c r="AB216" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="217" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="141">
@@ -27940,9 +27328,6 @@
       </c>
       <c r="Z217" s="12"/>
       <c r="AA217" s="12"/>
-      <c r="AB217" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="218" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="141">
@@ -28029,9 +27414,6 @@
       </c>
       <c r="Z218" s="12"/>
       <c r="AA218" s="12"/>
-      <c r="AB218" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="219" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="141">
@@ -28118,9 +27500,6 @@
       </c>
       <c r="Z219" s="12"/>
       <c r="AA219" s="12"/>
-      <c r="AB219" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="220" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="141">
@@ -28207,9 +27586,6 @@
       </c>
       <c r="Z220" s="12"/>
       <c r="AA220" s="12"/>
-      <c r="AB220" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="221" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="141">
@@ -28296,9 +27672,6 @@
       </c>
       <c r="Z221" s="12"/>
       <c r="AA221" s="12"/>
-      <c r="AB221" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="222" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="141">
@@ -28385,9 +27758,6 @@
       </c>
       <c r="Z222" s="12"/>
       <c r="AA222" s="12"/>
-      <c r="AB222" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="223" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="141">
@@ -28474,9 +27844,6 @@
       </c>
       <c r="Z223" s="12"/>
       <c r="AA223" s="12"/>
-      <c r="AB223" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="224" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="141">
@@ -28563,11 +27930,8 @@
       </c>
       <c r="Z224" s="12"/>
       <c r="AA224" s="12"/>
-      <c r="AB224" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="141">
         <v>2</v>
       </c>
@@ -28652,11 +28016,8 @@
       </c>
       <c r="Z225" s="12"/>
       <c r="AA225" s="12"/>
-      <c r="AB225" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="141">
         <v>2</v>
       </c>
@@ -28741,11 +28102,8 @@
       </c>
       <c r="Z226" s="12"/>
       <c r="AA226" s="12"/>
-      <c r="AB226" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="141">
         <v>2</v>
       </c>
@@ -28830,11 +28188,8 @@
       </c>
       <c r="Z227" s="12"/>
       <c r="AA227" s="12"/>
-      <c r="AB227" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="141">
         <v>2</v>
       </c>
@@ -28919,11 +28274,8 @@
       </c>
       <c r="Z228" s="12"/>
       <c r="AA228" s="12"/>
-      <c r="AB228" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="141">
         <v>2</v>
       </c>
@@ -29007,11 +28359,8 @@
       </c>
       <c r="Z229" s="12"/>
       <c r="AA229" s="12"/>
-      <c r="AB229" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="141">
         <v>2</v>
       </c>
@@ -29095,11 +28444,8 @@
       </c>
       <c r="Z230" s="12"/>
       <c r="AA230" s="12"/>
-      <c r="AB230" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="141">
         <v>2</v>
       </c>
@@ -29184,11 +28530,8 @@
       </c>
       <c r="Z231" s="12"/>
       <c r="AA231" s="12"/>
-      <c r="AB231" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="141">
         <v>3</v>
       </c>
@@ -29273,11 +28616,8 @@
       </c>
       <c r="Z232" s="12"/>
       <c r="AA232" s="12"/>
-      <c r="AB232" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="141">
         <v>3</v>
       </c>
@@ -29362,11 +28702,8 @@
       </c>
       <c r="Z233" s="12"/>
       <c r="AA233" s="12"/>
-      <c r="AB233" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="141">
         <v>3</v>
       </c>
@@ -29451,11 +28788,8 @@
       </c>
       <c r="Z234" s="12"/>
       <c r="AA234" s="12"/>
-      <c r="AB234" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="141">
         <v>3</v>
       </c>
@@ -29540,11 +28874,8 @@
       </c>
       <c r="Z235" s="12"/>
       <c r="AA235" s="12"/>
-      <c r="AB235" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="141">
         <v>3</v>
       </c>
@@ -29629,11 +28960,8 @@
       </c>
       <c r="Z236" s="12"/>
       <c r="AA236" s="12"/>
-      <c r="AB236" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="141">
         <v>3</v>
       </c>
@@ -29718,11 +29046,8 @@
       </c>
       <c r="Z237" s="12"/>
       <c r="AA237" s="12"/>
-      <c r="AB237" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="141">
         <v>3</v>
       </c>
@@ -29807,11 +29132,8 @@
       </c>
       <c r="Z238" s="12"/>
       <c r="AA238" s="12"/>
-      <c r="AB238" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="141">
         <v>3</v>
       </c>
@@ -29896,11 +29218,8 @@
       </c>
       <c r="Z239" s="12"/>
       <c r="AA239" s="12"/>
-      <c r="AB239" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="141">
         <v>3</v>
       </c>
@@ -29985,9 +29304,6 @@
       </c>
       <c r="Z240" s="12"/>
       <c r="AA240" s="12"/>
-      <c r="AB240" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="241" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="141">
@@ -30076,9 +29392,6 @@
       </c>
       <c r="Z241" s="12"/>
       <c r="AA241" s="12"/>
-      <c r="AB241" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="242" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="141">
@@ -30167,9 +29480,6 @@
       </c>
       <c r="Z242" s="12"/>
       <c r="AA242" s="12"/>
-      <c r="AB242" s="3">
-        <v>1</v>
-      </c>
       <c r="AC242" s="204" t="s">
         <v>315</v>
       </c>
@@ -30267,9 +29577,6 @@
       </c>
       <c r="Z243" s="12"/>
       <c r="AA243" s="12"/>
-      <c r="AB243" s="3">
-        <v>1</v>
-      </c>
       <c r="AC243" s="204" t="s">
         <v>315</v>
       </c>
@@ -30365,9 +29672,6 @@
       </c>
       <c r="Z244" s="12"/>
       <c r="AA244" s="12"/>
-      <c r="AB244" s="3">
-        <v>1</v>
-      </c>
       <c r="AC244" s="3" t="s">
         <v>315</v>
       </c>
@@ -30463,9 +29767,6 @@
       </c>
       <c r="Z245" s="12"/>
       <c r="AA245" s="12"/>
-      <c r="AB245" s="3">
-        <v>1</v>
-      </c>
       <c r="AC245" s="3" t="s">
         <v>315</v>
       </c>
@@ -30650,9 +29951,6 @@
       </c>
       <c r="Z247" s="12"/>
       <c r="AA247" s="12"/>
-      <c r="AB247" s="3">
-        <v>1</v>
-      </c>
       <c r="AC247" s="3" t="s">
         <v>315</v>
       </c>
@@ -30748,9 +30046,6 @@
       </c>
       <c r="Z248" s="12"/>
       <c r="AA248" s="12"/>
-      <c r="AB248" s="3">
-        <v>1</v>
-      </c>
       <c r="AC248" s="3" t="s">
         <v>315</v>
       </c>
@@ -30935,9 +30230,6 @@
       </c>
       <c r="Z250" s="12"/>
       <c r="AA250" s="12"/>
-      <c r="AB250" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="251" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="141">
@@ -31024,9 +30316,6 @@
       </c>
       <c r="Z251" s="12"/>
       <c r="AA251" s="12"/>
-      <c r="AB251" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="252" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="141">
@@ -31113,9 +30402,6 @@
       </c>
       <c r="Z252" s="12"/>
       <c r="AA252" s="12"/>
-      <c r="AB252" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="253" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="141">
@@ -31202,9 +30488,6 @@
       </c>
       <c r="Z253" s="12"/>
       <c r="AA253" s="12"/>
-      <c r="AB253" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="254" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="141">
@@ -31291,9 +30574,6 @@
       </c>
       <c r="Z254" s="12"/>
       <c r="AA254" s="12"/>
-      <c r="AB254" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="255" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="141">
@@ -31380,9 +30660,6 @@
       </c>
       <c r="Z255" s="12"/>
       <c r="AA255" s="12"/>
-      <c r="AB255" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="256" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="141">
@@ -31469,9 +30746,6 @@
       </c>
       <c r="Z256" s="12"/>
       <c r="AA256" s="12"/>
-      <c r="AB256" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="257" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="141">
@@ -31558,9 +30832,6 @@
       </c>
       <c r="Z257" s="12"/>
       <c r="AA257" s="12"/>
-      <c r="AB257" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="258" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="141">
@@ -31649,9 +30920,6 @@
       </c>
       <c r="Z258" s="12"/>
       <c r="AA258" s="12"/>
-      <c r="AB258" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="259" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="141">
@@ -31740,9 +31008,6 @@
       </c>
       <c r="Z259" s="12"/>
       <c r="AA259" s="12"/>
-      <c r="AB259" s="3">
-        <v>1</v>
-      </c>
       <c r="AC259" s="204" t="s">
         <v>315</v>
       </c>
@@ -31840,9 +31105,6 @@
       </c>
       <c r="Z260" s="12"/>
       <c r="AA260" s="12"/>
-      <c r="AB260" s="3">
-        <v>1</v>
-      </c>
       <c r="AC260" s="204" t="s">
         <v>315</v>
       </c>
@@ -31938,9 +31200,6 @@
       </c>
       <c r="Z261" s="12"/>
       <c r="AA261" s="12"/>
-      <c r="AB261" s="3">
-        <v>1</v>
-      </c>
       <c r="AC261" s="3" t="s">
         <v>315</v>
       </c>
@@ -32036,9 +31295,6 @@
       </c>
       <c r="Z262" s="12"/>
       <c r="AA262" s="12"/>
-      <c r="AB262" s="3">
-        <v>1</v>
-      </c>
       <c r="AC262" s="3" t="s">
         <v>315</v>
       </c>
@@ -32220,9 +31476,6 @@
       </c>
       <c r="Z264" s="12"/>
       <c r="AA264" s="12"/>
-      <c r="AB264" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="265" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="141">
@@ -32309,9 +31562,6 @@
       </c>
       <c r="Z265" s="12"/>
       <c r="AA265" s="12"/>
-      <c r="AB265" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="266" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="141">
@@ -32398,9 +31648,6 @@
       </c>
       <c r="Z266" s="12"/>
       <c r="AA266" s="12"/>
-      <c r="AB266" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="267" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="141">
@@ -32487,9 +31734,6 @@
       </c>
       <c r="Z267" s="12"/>
       <c r="AA267" s="12"/>
-      <c r="AB267" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="268" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="141">
@@ -32576,9 +31820,6 @@
       </c>
       <c r="Z268" s="12"/>
       <c r="AA268" s="12"/>
-      <c r="AB268" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="269" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="141">
@@ -32667,9 +31908,6 @@
       </c>
       <c r="Z269" s="12"/>
       <c r="AA269" s="12"/>
-      <c r="AB269" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="270" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="141">
@@ -32758,9 +31996,6 @@
       </c>
       <c r="Z270" s="12"/>
       <c r="AA270" s="12"/>
-      <c r="AB270" s="3">
-        <v>1</v>
-      </c>
       <c r="AC270" s="204" t="s">
         <v>315</v>
       </c>
@@ -32858,9 +32093,6 @@
       </c>
       <c r="Z271" s="12"/>
       <c r="AA271" s="12"/>
-      <c r="AB271" s="3">
-        <v>1</v>
-      </c>
       <c r="AC271" s="204" t="s">
         <v>315</v>
       </c>
@@ -32956,9 +32188,6 @@
       </c>
       <c r="Z272" s="12"/>
       <c r="AA272" s="12"/>
-      <c r="AB272" s="3">
-        <v>1</v>
-      </c>
       <c r="AC272" s="3" t="s">
         <v>315</v>
       </c>
@@ -33054,9 +32283,6 @@
       </c>
       <c r="Z273" s="12"/>
       <c r="AA273" s="12"/>
-      <c r="AB273" s="3">
-        <v>1</v>
-      </c>
       <c r="AC273" s="3" t="s">
         <v>315</v>
       </c>
@@ -33240,9 +32466,6 @@
       </c>
       <c r="Z275" s="12"/>
       <c r="AA275" s="12"/>
-      <c r="AB275" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="276" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="141">
@@ -33331,9 +32554,6 @@
       </c>
       <c r="Z276" s="12"/>
       <c r="AA276" s="12"/>
-      <c r="AB276" s="3">
-        <v>1</v>
-      </c>
       <c r="AC276" s="204" t="s">
         <v>315</v>
       </c>
@@ -33431,9 +32651,6 @@
       </c>
       <c r="Z277" s="12"/>
       <c r="AA277" s="12"/>
-      <c r="AB277" s="3">
-        <v>1</v>
-      </c>
       <c r="AC277" s="204" t="s">
         <v>315</v>
       </c>
@@ -33529,9 +32746,6 @@
       </c>
       <c r="Z278" s="12"/>
       <c r="AA278" s="12"/>
-      <c r="AB278" s="3">
-        <v>1</v>
-      </c>
       <c r="AC278" s="3" t="s">
         <v>315</v>
       </c>
@@ -33627,9 +32841,6 @@
       </c>
       <c r="Z279" s="12"/>
       <c r="AA279" s="12"/>
-      <c r="AB279" s="3">
-        <v>1</v>
-      </c>
       <c r="AC279" s="3" t="s">
         <v>315</v>
       </c>
@@ -33811,9 +33022,6 @@
       </c>
       <c r="Z281" s="12"/>
       <c r="AA281" s="12"/>
-      <c r="AB281" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="282" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="141">
@@ -33900,9 +33108,6 @@
       </c>
       <c r="Z282" s="12"/>
       <c r="AA282" s="12"/>
-      <c r="AB282" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="283" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="141">
@@ -33989,9 +33194,6 @@
       </c>
       <c r="Z283" s="12"/>
       <c r="AA283" s="12"/>
-      <c r="AB283" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="284" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="141">
@@ -34078,9 +33280,6 @@
       </c>
       <c r="Z284" s="12"/>
       <c r="AA284" s="12"/>
-      <c r="AB284" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="285" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="141">
@@ -34167,9 +33366,6 @@
       </c>
       <c r="Z285" s="12"/>
       <c r="AA285" s="12"/>
-      <c r="AB285" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="286" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="141">
@@ -34256,9 +33452,6 @@
       </c>
       <c r="Z286" s="12"/>
       <c r="AA286" s="12"/>
-      <c r="AB286" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="287" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="141">
@@ -34347,9 +33540,6 @@
       </c>
       <c r="Z287" s="12"/>
       <c r="AA287" s="12"/>
-      <c r="AB287" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="288" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="141">
@@ -34438,9 +33628,6 @@
       </c>
       <c r="Z288" s="12"/>
       <c r="AA288" s="12"/>
-      <c r="AB288" s="3">
-        <v>1</v>
-      </c>
       <c r="AC288" s="204" t="s">
         <v>315</v>
       </c>
@@ -34536,9 +33723,6 @@
       </c>
       <c r="Z289" s="12"/>
       <c r="AA289" s="12"/>
-      <c r="AB289" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="290" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="141">
@@ -34625,9 +33809,6 @@
       </c>
       <c r="Z290" s="12"/>
       <c r="AA290" s="12"/>
-      <c r="AB290" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="291" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="141">
@@ -34716,9 +33897,6 @@
       </c>
       <c r="Z291" s="12"/>
       <c r="AA291" s="12"/>
-      <c r="AB291" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="292" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="141">
@@ -34807,9 +33985,6 @@
       </c>
       <c r="Z292" s="12"/>
       <c r="AA292" s="12"/>
-      <c r="AB292" s="3">
-        <v>1</v>
-      </c>
       <c r="AC292" s="204" t="s">
         <v>315</v>
       </c>
@@ -34907,9 +34082,6 @@
       </c>
       <c r="Z293" s="12"/>
       <c r="AA293" s="12"/>
-      <c r="AB293" s="3">
-        <v>1</v>
-      </c>
       <c r="AC293" s="204" t="s">
         <v>315</v>
       </c>
@@ -35005,9 +34177,6 @@
       </c>
       <c r="Z294" s="12"/>
       <c r="AA294" s="12"/>
-      <c r="AB294" s="3">
-        <v>1</v>
-      </c>
       <c r="AC294" s="3" t="s">
         <v>315</v>
       </c>
@@ -35103,9 +34272,6 @@
       </c>
       <c r="Z295" s="12"/>
       <c r="AA295" s="12"/>
-      <c r="AB295" s="3">
-        <v>1</v>
-      </c>
       <c r="AC295" s="3" t="s">
         <v>315</v>
       </c>
@@ -35290,9 +34456,6 @@
       </c>
       <c r="Z297" s="12"/>
       <c r="AA297" s="12"/>
-      <c r="AB297" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="298" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="141">
@@ -35379,9 +34542,6 @@
       </c>
       <c r="Z298" s="12"/>
       <c r="AA298" s="12"/>
-      <c r="AB298" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="299" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="141">
@@ -35468,9 +34628,6 @@
       </c>
       <c r="Z299" s="12"/>
       <c r="AA299" s="12"/>
-      <c r="AB299" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="300" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="141">
@@ -35557,9 +34714,6 @@
       </c>
       <c r="Z300" s="12"/>
       <c r="AA300" s="12"/>
-      <c r="AB300" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="301" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="141">
@@ -35646,9 +34800,6 @@
       </c>
       <c r="Z301" s="12"/>
       <c r="AA301" s="12"/>
-      <c r="AB301" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="302" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="141">
@@ -35735,9 +34886,6 @@
       </c>
       <c r="Z302" s="12"/>
       <c r="AA302" s="12"/>
-      <c r="AB302" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="303" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="141">
@@ -35824,9 +34972,6 @@
       </c>
       <c r="Z303" s="12"/>
       <c r="AA303" s="12"/>
-      <c r="AB303" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="304" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="141">
@@ -35913,9 +35058,6 @@
       </c>
       <c r="Z304" s="12"/>
       <c r="AA304" s="12"/>
-      <c r="AB304" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="305" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="141">
@@ -36002,9 +35144,6 @@
       </c>
       <c r="Z305" s="12"/>
       <c r="AA305" s="12"/>
-      <c r="AB305" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="306" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="141">
@@ -36091,9 +35230,6 @@
       </c>
       <c r="Z306" s="12"/>
       <c r="AA306" s="12"/>
-      <c r="AB306" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="307" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="141">
@@ -36180,9 +35316,6 @@
       </c>
       <c r="Z307" s="12"/>
       <c r="AA307" s="12"/>
-      <c r="AB307" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="308" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="141">
@@ -36269,9 +35402,6 @@
       </c>
       <c r="Z308" s="12"/>
       <c r="AA308" s="12"/>
-      <c r="AB308" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="309" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="141">
@@ -36358,9 +35488,6 @@
       </c>
       <c r="Z309" s="12"/>
       <c r="AA309" s="12"/>
-      <c r="AB309" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="310" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="141">
@@ -36447,9 +35574,6 @@
       </c>
       <c r="Z310" s="12"/>
       <c r="AA310" s="12"/>
-      <c r="AB310" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="311" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="141">
@@ -36536,9 +35660,6 @@
       </c>
       <c r="Z311" s="12"/>
       <c r="AA311" s="12"/>
-      <c r="AB311" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="312" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="141">
@@ -36625,9 +35746,6 @@
       </c>
       <c r="Z312" s="12"/>
       <c r="AA312" s="12"/>
-      <c r="AB312" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="313" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="141">
@@ -36716,9 +35834,6 @@
       </c>
       <c r="Z313" s="12"/>
       <c r="AA313" s="12"/>
-      <c r="AB313" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="314" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="141">
@@ -36807,9 +35922,6 @@
       </c>
       <c r="Z314" s="12"/>
       <c r="AA314" s="12"/>
-      <c r="AB314" s="3">
-        <v>1</v>
-      </c>
       <c r="AC314" s="204" t="s">
         <v>315</v>
       </c>
@@ -36907,9 +36019,6 @@
       </c>
       <c r="Z315" s="12"/>
       <c r="AA315" s="12"/>
-      <c r="AB315" s="3">
-        <v>1</v>
-      </c>
       <c r="AC315" s="204" t="s">
         <v>315</v>
       </c>
@@ -37005,9 +36114,6 @@
       </c>
       <c r="Z316" s="12"/>
       <c r="AA316" s="12"/>
-      <c r="AB316" s="3">
-        <v>1</v>
-      </c>
       <c r="AC316" s="3" t="s">
         <v>315</v>
       </c>
@@ -37103,9 +36209,6 @@
       </c>
       <c r="Z317" s="12"/>
       <c r="AA317" s="12"/>
-      <c r="AB317" s="3">
-        <v>1</v>
-      </c>
       <c r="AC317" s="3" t="s">
         <v>315</v>
       </c>
@@ -37287,9 +36390,6 @@
       </c>
       <c r="Z319" s="12"/>
       <c r="AA319" s="12"/>
-      <c r="AB319" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="320" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="141">
@@ -37376,11 +36476,8 @@
       </c>
       <c r="Z320" s="12"/>
       <c r="AA320" s="12"/>
-      <c r="AB320" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="321" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="141">
         <v>1</v>
       </c>
@@ -37465,11 +36562,8 @@
       </c>
       <c r="Z321" s="12"/>
       <c r="AA321" s="12"/>
-      <c r="AB321" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="322" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="322" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="141">
         <v>1</v>
       </c>
@@ -37554,11 +36648,8 @@
       </c>
       <c r="Z322" s="12"/>
       <c r="AA322" s="12"/>
-      <c r="AB322" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="323" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="323" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="141">
         <v>1</v>
       </c>
@@ -37643,11 +36734,8 @@
       </c>
       <c r="Z323" s="12"/>
       <c r="AA323" s="12"/>
-      <c r="AB323" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="324" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="324" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="141">
         <v>1</v>
       </c>
@@ -37732,11 +36820,8 @@
       </c>
       <c r="Z324" s="12"/>
       <c r="AA324" s="12"/>
-      <c r="AB324" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="325" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="325" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="141">
         <v>1</v>
       </c>
@@ -37821,11 +36906,8 @@
       </c>
       <c r="Z325" s="12"/>
       <c r="AA325" s="12"/>
-      <c r="AB325" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="326" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="326" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="141">
         <v>1</v>
       </c>
@@ -37910,11 +36992,8 @@
       </c>
       <c r="Z326" s="12"/>
       <c r="AA326" s="12"/>
-      <c r="AB326" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="327" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="327" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="141">
         <v>2</v>
       </c>
@@ -37999,11 +37078,8 @@
       </c>
       <c r="Z327" s="12"/>
       <c r="AA327" s="12"/>
-      <c r="AB327" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="328" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="328" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="141">
         <v>2</v>
       </c>
@@ -38088,11 +37164,8 @@
       </c>
       <c r="Z328" s="12"/>
       <c r="AA328" s="12"/>
-      <c r="AB328" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="329" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="329" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="141">
         <v>2</v>
       </c>
@@ -38177,11 +37250,8 @@
       </c>
       <c r="Z329" s="12"/>
       <c r="AA329" s="12"/>
-      <c r="AB329" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="330" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="330" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="141">
         <v>2</v>
       </c>
@@ -38266,11 +37336,8 @@
       </c>
       <c r="Z330" s="12"/>
       <c r="AA330" s="12"/>
-      <c r="AB330" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="331" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="331" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="141">
         <v>2</v>
       </c>
@@ -38355,11 +37422,8 @@
       </c>
       <c r="Z331" s="12"/>
       <c r="AA331" s="12"/>
-      <c r="AB331" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="332" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="332" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="141">
         <v>2</v>
       </c>
@@ -38444,11 +37508,8 @@
       </c>
       <c r="Z332" s="12"/>
       <c r="AA332" s="12"/>
-      <c r="AB332" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="333" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="333" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="141">
         <v>2</v>
       </c>
@@ -38533,11 +37594,8 @@
       </c>
       <c r="Z333" s="12"/>
       <c r="AA333" s="12"/>
-      <c r="AB333" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="334" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="334" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="141">
         <v>2</v>
       </c>
@@ -38622,11 +37680,8 @@
       </c>
       <c r="Z334" s="12"/>
       <c r="AA334" s="12"/>
-      <c r="AB334" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="335" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="335" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="141">
         <v>2</v>
       </c>
@@ -38711,11 +37766,8 @@
       </c>
       <c r="Z335" s="12"/>
       <c r="AA335" s="12"/>
-      <c r="AB335" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="336" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="336" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="141">
         <v>2</v>
       </c>
@@ -38799,9 +37851,6 @@
       </c>
       <c r="Z336" s="12"/>
       <c r="AA336" s="12"/>
-      <c r="AB336" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="337" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="141">
@@ -38887,9 +37936,6 @@
       </c>
       <c r="Z337" s="12"/>
       <c r="AA337" s="12"/>
-      <c r="AB337" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="338" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="141">
@@ -38976,9 +38022,6 @@
       </c>
       <c r="Z338" s="12"/>
       <c r="AA338" s="12"/>
-      <c r="AB338" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="339" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="141">
@@ -39065,9 +38108,6 @@
       </c>
       <c r="Z339" s="12"/>
       <c r="AA339" s="12"/>
-      <c r="AB339" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="340" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="141">
@@ -39154,9 +38194,6 @@
       </c>
       <c r="Z340" s="12"/>
       <c r="AA340" s="12"/>
-      <c r="AB340" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="341" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="141">
@@ -39243,9 +38280,6 @@
       </c>
       <c r="Z341" s="12"/>
       <c r="AA341" s="12"/>
-      <c r="AB341" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="342" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="141">
@@ -39332,9 +38366,6 @@
       </c>
       <c r="Z342" s="12"/>
       <c r="AA342" s="12"/>
-      <c r="AB342" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="343" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="141">
@@ -39421,9 +38452,6 @@
       </c>
       <c r="Z343" s="12"/>
       <c r="AA343" s="12"/>
-      <c r="AB343" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="344" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="141">
@@ -39510,9 +38538,6 @@
       </c>
       <c r="Z344" s="12"/>
       <c r="AA344" s="12"/>
-      <c r="AB344" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="345" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="141">
@@ -39599,9 +38624,6 @@
       </c>
       <c r="Z345" s="12"/>
       <c r="AA345" s="12"/>
-      <c r="AB345" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="346" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="141">
@@ -39688,9 +38710,6 @@
       </c>
       <c r="Z346" s="12"/>
       <c r="AA346" s="12"/>
-      <c r="AB346" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="347" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="141">
@@ -39777,9 +38796,6 @@
       </c>
       <c r="Z347" s="12"/>
       <c r="AA347" s="12"/>
-      <c r="AB347" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="348" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="141">
@@ -39868,9 +38884,6 @@
       </c>
       <c r="Z348" s="12"/>
       <c r="AA348" s="12"/>
-      <c r="AB348" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="349" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="141">
@@ -39959,9 +38972,6 @@
       </c>
       <c r="Z349" s="12"/>
       <c r="AA349" s="12"/>
-      <c r="AB349" s="3">
-        <v>1</v>
-      </c>
       <c r="AC349" s="204" t="s">
         <v>315</v>
       </c>
@@ -40059,9 +39069,6 @@
       </c>
       <c r="Z350" s="12"/>
       <c r="AA350" s="12"/>
-      <c r="AB350" s="3">
-        <v>1</v>
-      </c>
       <c r="AC350" s="204" t="s">
         <v>315</v>
       </c>
@@ -40157,9 +39164,6 @@
       </c>
       <c r="Z351" s="12"/>
       <c r="AA351" s="12"/>
-      <c r="AB351" s="3">
-        <v>1</v>
-      </c>
       <c r="AC351" s="3" t="s">
         <v>315</v>
       </c>
@@ -40255,9 +39259,6 @@
       </c>
       <c r="Z352" s="12"/>
       <c r="AA352" s="12"/>
-      <c r="AB352" s="3">
-        <v>1</v>
-      </c>
       <c r="AC352" s="3" t="s">
         <v>315</v>
       </c>
@@ -40442,9 +39443,6 @@
       </c>
       <c r="Z354" s="12"/>
       <c r="AA354" s="12"/>
-      <c r="AB354" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="355" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="141">
@@ -40531,9 +39529,6 @@
       </c>
       <c r="Z355" s="12"/>
       <c r="AA355" s="12"/>
-      <c r="AB355" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="356" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="141">
@@ -40620,9 +39615,6 @@
       </c>
       <c r="Z356" s="12"/>
       <c r="AA356" s="12"/>
-      <c r="AB356" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="357" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="141">
@@ -40709,9 +39701,6 @@
       </c>
       <c r="Z357" s="12"/>
       <c r="AA357" s="12"/>
-      <c r="AB357" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="358" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="141">
@@ -40798,9 +39787,6 @@
       </c>
       <c r="Z358" s="12"/>
       <c r="AA358" s="12"/>
-      <c r="AB358" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="359" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="141">
@@ -40887,9 +39873,6 @@
       </c>
       <c r="Z359" s="12"/>
       <c r="AA359" s="12"/>
-      <c r="AB359" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="360" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="141">
@@ -40976,9 +39959,6 @@
       </c>
       <c r="Z360" s="12"/>
       <c r="AA360" s="12"/>
-      <c r="AB360" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="361" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="141">
@@ -41065,9 +40045,6 @@
       </c>
       <c r="Z361" s="12"/>
       <c r="AA361" s="12"/>
-      <c r="AB361" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="362" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="141">
@@ -41154,9 +40131,6 @@
       </c>
       <c r="Z362" s="12"/>
       <c r="AA362" s="12"/>
-      <c r="AB362" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="363" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="141">
@@ -41243,9 +40217,6 @@
       </c>
       <c r="Z363" s="12"/>
       <c r="AA363" s="12"/>
-      <c r="AB363" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="364" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="141">
@@ -41332,9 +40303,6 @@
       </c>
       <c r="Z364" s="12"/>
       <c r="AA364" s="12"/>
-      <c r="AB364" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="365" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="141">
@@ -41421,9 +40389,6 @@
       </c>
       <c r="Z365" s="12"/>
       <c r="AA365" s="12"/>
-      <c r="AB365" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="366" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="141">
@@ -41510,9 +40475,6 @@
       </c>
       <c r="Z366" s="12"/>
       <c r="AA366" s="12"/>
-      <c r="AB366" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="367" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="141">
@@ -41599,9 +40561,6 @@
       </c>
       <c r="Z367" s="12"/>
       <c r="AA367" s="12"/>
-      <c r="AB367" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="368" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="141">
@@ -41688,9 +40647,6 @@
       </c>
       <c r="Z368" s="12"/>
       <c r="AA368" s="12"/>
-      <c r="AB368" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="369" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="141">
@@ -41777,9 +40733,6 @@
       </c>
       <c r="Z369" s="12"/>
       <c r="AA369" s="12"/>
-      <c r="AB369" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="370" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="141">
@@ -41866,9 +40819,6 @@
       </c>
       <c r="Z370" s="12"/>
       <c r="AA370" s="12"/>
-      <c r="AB370" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="371" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="141">
@@ -41955,9 +40905,6 @@
       </c>
       <c r="Z371" s="12"/>
       <c r="AA371" s="12"/>
-      <c r="AB371" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="372" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="141">
@@ -42044,9 +40991,6 @@
       </c>
       <c r="Z372" s="12"/>
       <c r="AA372" s="12"/>
-      <c r="AB372" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="373" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="141">
@@ -42133,9 +41077,6 @@
       </c>
       <c r="Z373" s="12"/>
       <c r="AA373" s="12"/>
-      <c r="AB373" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="374" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="141">
@@ -42222,9 +41163,6 @@
       </c>
       <c r="Z374" s="12"/>
       <c r="AA374" s="12"/>
-      <c r="AB374" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="375" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="141">
@@ -42311,9 +41249,6 @@
       </c>
       <c r="Z375" s="12"/>
       <c r="AA375" s="12"/>
-      <c r="AB375" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="376" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="141">
@@ -42400,9 +41335,6 @@
       </c>
       <c r="Z376" s="12"/>
       <c r="AA376" s="12"/>
-      <c r="AB376" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="377" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="141">
@@ -42488,9 +41420,6 @@
       </c>
       <c r="Z377" s="12"/>
       <c r="AA377" s="12"/>
-      <c r="AB377" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="378" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="141">
@@ -42577,9 +41506,6 @@
       </c>
       <c r="Z378" s="12"/>
       <c r="AA378" s="12"/>
-      <c r="AB378" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="379" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="141">
@@ -42668,9 +41594,6 @@
       </c>
       <c r="Z379" s="12"/>
       <c r="AA379" s="12"/>
-      <c r="AB379" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="380" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="141">
@@ -42759,9 +41682,6 @@
       </c>
       <c r="Z380" s="12"/>
       <c r="AA380" s="12"/>
-      <c r="AB380" s="3">
-        <v>1</v>
-      </c>
       <c r="AC380" s="204" t="s">
         <v>315</v>
       </c>
@@ -42859,9 +41779,6 @@
       </c>
       <c r="Z381" s="12"/>
       <c r="AA381" s="12"/>
-      <c r="AB381" s="3">
-        <v>1</v>
-      </c>
       <c r="AC381" s="204" t="s">
         <v>315</v>
       </c>
@@ -42957,9 +41874,6 @@
       </c>
       <c r="Z382" s="12"/>
       <c r="AA382" s="12"/>
-      <c r="AB382" s="3">
-        <v>1</v>
-      </c>
       <c r="AC382" s="3" t="s">
         <v>315</v>
       </c>
@@ -43055,9 +41969,6 @@
       </c>
       <c r="Z383" s="12"/>
       <c r="AA383" s="12"/>
-      <c r="AB383" s="3">
-        <v>1</v>
-      </c>
       <c r="AC383" s="3" t="s">
         <v>315</v>
       </c>
@@ -43239,9 +42150,6 @@
       </c>
       <c r="Z385" s="12"/>
       <c r="AA385" s="12"/>
-      <c r="AB385" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="386" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="141">
@@ -43328,9 +42236,6 @@
       </c>
       <c r="Z386" s="12"/>
       <c r="AA386" s="12"/>
-      <c r="AB386" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="387" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="141">
@@ -43417,9 +42322,6 @@
       </c>
       <c r="Z387" s="12"/>
       <c r="AA387" s="12"/>
-      <c r="AB387" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="388" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="141">
@@ -43506,9 +42408,6 @@
       </c>
       <c r="Z388" s="12"/>
       <c r="AA388" s="12"/>
-      <c r="AB388" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="389" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="141">
@@ -43597,9 +42496,6 @@
       </c>
       <c r="Z389" s="12"/>
       <c r="AA389" s="12"/>
-      <c r="AB389" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="390" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="141">
@@ -43688,9 +42584,6 @@
       </c>
       <c r="Z390" s="12"/>
       <c r="AA390" s="12"/>
-      <c r="AB390" s="3">
-        <v>1</v>
-      </c>
       <c r="AC390" s="204" t="s">
         <v>315</v>
       </c>
@@ -43788,9 +42681,6 @@
       </c>
       <c r="Z391" s="12"/>
       <c r="AA391" s="12"/>
-      <c r="AB391" s="3">
-        <v>1</v>
-      </c>
       <c r="AC391" s="204" t="s">
         <v>315</v>
       </c>
@@ -43886,9 +42776,6 @@
       </c>
       <c r="Z392" s="12"/>
       <c r="AA392" s="12"/>
-      <c r="AB392" s="3">
-        <v>1</v>
-      </c>
       <c r="AC392" s="3" t="s">
         <v>315</v>
       </c>
@@ -43984,9 +42871,6 @@
       </c>
       <c r="Z393" s="12"/>
       <c r="AA393" s="12"/>
-      <c r="AB393" s="3">
-        <v>1</v>
-      </c>
       <c r="AC393" s="3" t="s">
         <v>315</v>
       </c>
@@ -44168,9 +43052,6 @@
       </c>
       <c r="Z395" s="12"/>
       <c r="AA395" s="12"/>
-      <c r="AB395" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="396" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="141">
@@ -44257,9 +43138,6 @@
       </c>
       <c r="Z396" s="12"/>
       <c r="AA396" s="12"/>
-      <c r="AB396" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="397" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="141">
@@ -44346,9 +43224,6 @@
       </c>
       <c r="Z397" s="12"/>
       <c r="AA397" s="12"/>
-      <c r="AB397" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="398" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="141">
@@ -44435,9 +43310,6 @@
       </c>
       <c r="Z398" s="12"/>
       <c r="AA398" s="12"/>
-      <c r="AB398" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="399" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="141">
@@ -44524,9 +43396,6 @@
       </c>
       <c r="Z399" s="12"/>
       <c r="AA399" s="12"/>
-      <c r="AB399" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="400" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="141">
@@ -44613,11 +43482,8 @@
       </c>
       <c r="Z400" s="12"/>
       <c r="AA400" s="12"/>
-      <c r="AB400" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="401" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="401" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="141">
         <v>1</v>
       </c>
@@ -44702,11 +43568,8 @@
       </c>
       <c r="Z401" s="12"/>
       <c r="AA401" s="12"/>
-      <c r="AB401" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="402" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="402" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="141">
         <v>1</v>
       </c>
@@ -44791,11 +43654,8 @@
       </c>
       <c r="Z402" s="12"/>
       <c r="AA402" s="12"/>
-      <c r="AB402" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="403" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="403" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="141">
         <v>1</v>
       </c>
@@ -44880,11 +43740,8 @@
       </c>
       <c r="Z403" s="12"/>
       <c r="AA403" s="12"/>
-      <c r="AB403" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="404" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="404" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="141">
         <v>1</v>
       </c>
@@ -44969,11 +43826,8 @@
       </c>
       <c r="Z404" s="12"/>
       <c r="AA404" s="12"/>
-      <c r="AB404" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="405" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="405" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="141">
         <v>2</v>
       </c>
@@ -45058,11 +43912,8 @@
       </c>
       <c r="Z405" s="12"/>
       <c r="AA405" s="12"/>
-      <c r="AB405" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="406" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="406" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="141">
         <v>2</v>
       </c>
@@ -45147,11 +43998,8 @@
       </c>
       <c r="Z406" s="12"/>
       <c r="AA406" s="12"/>
-      <c r="AB406" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="407" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="407" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="141">
         <v>2</v>
       </c>
@@ -45236,11 +44084,8 @@
       </c>
       <c r="Z407" s="12"/>
       <c r="AA407" s="12"/>
-      <c r="AB407" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="408" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="408" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="141">
         <v>2</v>
       </c>
@@ -45325,11 +44170,8 @@
       </c>
       <c r="Z408" s="12"/>
       <c r="AA408" s="12"/>
-      <c r="AB408" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="409" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="409" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="141">
         <v>2</v>
       </c>
@@ -45414,11 +44256,8 @@
       </c>
       <c r="Z409" s="12"/>
       <c r="AA409" s="12"/>
-      <c r="AB409" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="410" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="410" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="141">
         <v>2</v>
       </c>
@@ -45503,11 +44342,8 @@
       </c>
       <c r="Z410" s="12"/>
       <c r="AA410" s="12"/>
-      <c r="AB410" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="411" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="411" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="141">
         <v>2</v>
       </c>
@@ -45592,11 +44428,8 @@
       </c>
       <c r="Z411" s="12"/>
       <c r="AA411" s="12"/>
-      <c r="AB411" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="412" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="412" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="141">
         <v>2</v>
       </c>
@@ -45681,11 +44514,8 @@
       </c>
       <c r="Z412" s="12"/>
       <c r="AA412" s="12"/>
-      <c r="AB412" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="413" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="413" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="141">
         <v>2</v>
       </c>
@@ -45770,11 +44600,8 @@
       </c>
       <c r="Z413" s="12"/>
       <c r="AA413" s="12"/>
-      <c r="AB413" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="414" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="414" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="141">
         <v>2</v>
       </c>
@@ -45858,11 +44685,8 @@
       </c>
       <c r="Z414" s="12"/>
       <c r="AA414" s="12"/>
-      <c r="AB414" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="415" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="415" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="141">
         <v>2</v>
       </c>
@@ -45946,11 +44770,8 @@
       </c>
       <c r="Z415" s="12"/>
       <c r="AA415" s="12"/>
-      <c r="AB415" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="416" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="416" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="141">
         <v>2</v>
       </c>
@@ -46035,11 +44856,8 @@
       </c>
       <c r="Z416" s="12"/>
       <c r="AA416" s="12"/>
-      <c r="AB416" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="417" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="417" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="141">
         <v>1</v>
       </c>
@@ -46124,11 +44942,8 @@
       </c>
       <c r="Z417" s="12"/>
       <c r="AA417" s="12"/>
-      <c r="AB417" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="418" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="418" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="141">
         <v>1</v>
       </c>
@@ -46213,11 +45028,8 @@
       </c>
       <c r="Z418" s="12"/>
       <c r="AA418" s="12"/>
-      <c r="AB418" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="419" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="419" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="141">
         <v>1</v>
       </c>
@@ -46302,11 +45114,8 @@
       </c>
       <c r="Z419" s="12"/>
       <c r="AA419" s="12"/>
-      <c r="AB419" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="420" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="420" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="141">
         <v>1</v>
       </c>
@@ -46391,11 +45200,8 @@
       </c>
       <c r="Z420" s="12"/>
       <c r="AA420" s="12"/>
-      <c r="AB420" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="421" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="421" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="141">
         <v>1</v>
       </c>
@@ -46480,11 +45286,8 @@
       </c>
       <c r="Z421" s="12"/>
       <c r="AA421" s="12"/>
-      <c r="AB421" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="422" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="422" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="141">
         <v>1</v>
       </c>
@@ -46569,11 +45372,8 @@
       </c>
       <c r="Z422" s="12"/>
       <c r="AA422" s="12"/>
-      <c r="AB422" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="423" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="423" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="141">
         <v>1</v>
       </c>
@@ -46658,11 +45458,8 @@
       </c>
       <c r="Z423" s="12"/>
       <c r="AA423" s="12"/>
-      <c r="AB423" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="424" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="424" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="141">
         <v>1</v>
       </c>
@@ -46747,11 +45544,8 @@
       </c>
       <c r="Z424" s="12"/>
       <c r="AA424" s="12"/>
-      <c r="AB424" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="425" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="425" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="141">
         <v>1</v>
       </c>
@@ -46836,11 +45630,8 @@
       </c>
       <c r="Z425" s="12"/>
       <c r="AA425" s="12"/>
-      <c r="AB425" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="426" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="426" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="141">
         <v>1</v>
       </c>
@@ -46925,11 +45716,8 @@
       </c>
       <c r="Z426" s="12"/>
       <c r="AA426" s="12"/>
-      <c r="AB426" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="427" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="427" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="141">
         <v>2</v>
       </c>
@@ -47014,11 +45802,8 @@
       </c>
       <c r="Z427" s="12"/>
       <c r="AA427" s="12"/>
-      <c r="AB427" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="428" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="428" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="141">
         <v>2</v>
       </c>
@@ -47103,11 +45888,8 @@
       </c>
       <c r="Z428" s="12"/>
       <c r="AA428" s="12"/>
-      <c r="AB428" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="429" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="429" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="141">
         <v>2</v>
       </c>
@@ -47192,11 +45974,8 @@
       </c>
       <c r="Z429" s="12"/>
       <c r="AA429" s="12"/>
-      <c r="AB429" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="430" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="430" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="141">
         <v>2</v>
       </c>
@@ -47281,11 +46060,8 @@
       </c>
       <c r="Z430" s="12"/>
       <c r="AA430" s="12"/>
-      <c r="AB430" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="431" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="431" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="141">
         <v>2</v>
       </c>
@@ -47370,11 +46146,8 @@
       </c>
       <c r="Z431" s="12"/>
       <c r="AA431" s="12"/>
-      <c r="AB431" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="432" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="432" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="141">
         <v>2</v>
       </c>
@@ -47459,11 +46232,8 @@
       </c>
       <c r="Z432" s="12"/>
       <c r="AA432" s="12"/>
-      <c r="AB432" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="433" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="433" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="141">
         <v>2</v>
       </c>
@@ -47548,11 +46318,8 @@
       </c>
       <c r="Z433" s="12"/>
       <c r="AA433" s="12"/>
-      <c r="AB433" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="434" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="434" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="141">
         <v>2</v>
       </c>
@@ -47637,11 +46404,8 @@
       </c>
       <c r="Z434" s="12"/>
       <c r="AA434" s="12"/>
-      <c r="AB434" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="435" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="435" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="141">
         <v>2</v>
       </c>
@@ -47726,11 +46490,8 @@
       </c>
       <c r="Z435" s="12"/>
       <c r="AA435" s="12"/>
-      <c r="AB435" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="436" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="436" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="141">
         <v>2</v>
       </c>
@@ -47815,11 +46576,8 @@
       </c>
       <c r="Z436" s="12"/>
       <c r="AA436" s="12"/>
-      <c r="AB436" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="437" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="437" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="141">
         <v>2</v>
       </c>
@@ -47904,11 +46662,8 @@
       </c>
       <c r="Z437" s="12"/>
       <c r="AA437" s="12"/>
-      <c r="AB437" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="438" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="438" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="141">
         <v>2</v>
       </c>
@@ -47993,11 +46748,8 @@
       </c>
       <c r="Z438" s="12"/>
       <c r="AA438" s="12"/>
-      <c r="AB438" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="439" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="439" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="141">
         <v>3</v>
       </c>
@@ -48082,11 +46834,8 @@
       </c>
       <c r="Z439" s="12"/>
       <c r="AA439" s="12"/>
-      <c r="AB439" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="440" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="440" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="141">
         <v>3</v>
       </c>
@@ -48171,11 +46920,8 @@
       </c>
       <c r="Z440" s="12"/>
       <c r="AA440" s="12"/>
-      <c r="AB440" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="441" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="441" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="141">
         <v>3</v>
       </c>
@@ -48260,11 +47006,8 @@
       </c>
       <c r="Z441" s="12"/>
       <c r="AA441" s="12"/>
-      <c r="AB441" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="442" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="442" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="141">
         <v>3</v>
       </c>
@@ -48349,11 +47092,8 @@
       </c>
       <c r="Z442" s="12"/>
       <c r="AA442" s="12"/>
-      <c r="AB442" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="443" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="443" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="141">
         <v>3</v>
       </c>
@@ -48438,11 +47178,8 @@
       </c>
       <c r="Z443" s="12"/>
       <c r="AA443" s="12"/>
-      <c r="AB443" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="444" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="444" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="141">
         <v>3</v>
       </c>
@@ -48526,11 +47263,8 @@
       </c>
       <c r="Z444" s="12"/>
       <c r="AA444" s="12"/>
-      <c r="AB444" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="445" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="445" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="141">
         <v>3</v>
       </c>
@@ -48614,11 +47348,8 @@
       </c>
       <c r="Z445" s="12"/>
       <c r="AA445" s="12"/>
-      <c r="AB445" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="446" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="446" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="141">
         <v>3</v>
       </c>
@@ -48702,11 +47433,8 @@
       </c>
       <c r="Z446" s="12"/>
       <c r="AA446" s="12"/>
-      <c r="AB446" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="447" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="447" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="141">
         <v>3</v>
       </c>
@@ -48790,11 +47518,8 @@
       </c>
       <c r="Z447" s="12"/>
       <c r="AA447" s="12"/>
-      <c r="AB447" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="448" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="448" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="141">
         <v>3</v>
       </c>
@@ -48880,9 +47605,6 @@
       </c>
       <c r="Z448" s="12"/>
       <c r="AA448" s="12"/>
-      <c r="AB448" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="449" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="141">
@@ -48971,9 +47693,6 @@
       </c>
       <c r="Z449" s="12"/>
       <c r="AA449" s="12"/>
-      <c r="AB449" s="3">
-        <v>1</v>
-      </c>
       <c r="AC449" s="204" t="s">
         <v>315</v>
       </c>
@@ -49071,9 +47790,6 @@
       </c>
       <c r="Z450" s="12"/>
       <c r="AA450" s="12"/>
-      <c r="AB450" s="3">
-        <v>1</v>
-      </c>
       <c r="AC450" s="204" t="s">
         <v>315</v>
       </c>
@@ -49169,9 +47885,6 @@
       </c>
       <c r="Z451" s="12"/>
       <c r="AA451" s="12"/>
-      <c r="AB451" s="3">
-        <v>1</v>
-      </c>
       <c r="AC451" s="3" t="s">
         <v>315</v>
       </c>
@@ -49267,9 +47980,6 @@
       </c>
       <c r="Z452" s="12"/>
       <c r="AA452" s="12"/>
-      <c r="AB452" s="3">
-        <v>1</v>
-      </c>
       <c r="AC452" s="3" t="s">
         <v>315</v>
       </c>
@@ -49451,9 +48161,6 @@
       </c>
       <c r="Z454" s="12"/>
       <c r="AA454" s="12"/>
-      <c r="AB454" s="3">
-        <v>2</v>
-      </c>
     </row>
     <row r="455" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="141">
@@ -49540,9 +48247,6 @@
       </c>
       <c r="Z455" s="12"/>
       <c r="AA455" s="12"/>
-      <c r="AB455" s="3">
-        <v>2</v>
-      </c>
     </row>
     <row r="456" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="141">
@@ -49629,9 +48333,6 @@
       </c>
       <c r="Z456" s="12"/>
       <c r="AA456" s="12"/>
-      <c r="AB456" s="3">
-        <v>2</v>
-      </c>
     </row>
     <row r="457" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="141">
@@ -49718,9 +48419,6 @@
       </c>
       <c r="Z457" s="12"/>
       <c r="AA457" s="12"/>
-      <c r="AB457" s="3">
-        <v>2</v>
-      </c>
     </row>
     <row r="458" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="141">
@@ -49807,9 +48505,6 @@
       </c>
       <c r="Z458" s="12"/>
       <c r="AA458" s="12"/>
-      <c r="AB458" s="3">
-        <v>2</v>
-      </c>
     </row>
     <row r="459" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="141">
@@ -49896,9 +48591,6 @@
       </c>
       <c r="Z459" s="12"/>
       <c r="AA459" s="12"/>
-      <c r="AB459" s="3">
-        <v>2</v>
-      </c>
     </row>
     <row r="460" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="141">
@@ -49985,9 +48677,6 @@
       </c>
       <c r="Z460" s="12"/>
       <c r="AA460" s="12"/>
-      <c r="AB460" s="3">
-        <v>2</v>
-      </c>
     </row>
     <row r="461" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="141">
@@ -50074,9 +48763,6 @@
       </c>
       <c r="Z461" s="12"/>
       <c r="AA461" s="12"/>
-      <c r="AB461" s="3">
-        <v>2</v>
-      </c>
     </row>
     <row r="462" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="141">
@@ -50163,9 +48849,6 @@
       </c>
       <c r="Z462" s="12"/>
       <c r="AA462" s="12"/>
-      <c r="AB462" s="3">
-        <v>2</v>
-      </c>
     </row>
     <row r="463" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="141">
@@ -50252,9 +48935,6 @@
       </c>
       <c r="Z463" s="12"/>
       <c r="AA463" s="12"/>
-      <c r="AB463" s="3">
-        <v>2</v>
-      </c>
     </row>
     <row r="464" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="141">
@@ -50341,11 +49021,8 @@
       </c>
       <c r="Z464" s="12"/>
       <c r="AA464" s="12"/>
-      <c r="AB464" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="465" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="465" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="141">
         <v>2</v>
       </c>
@@ -50430,11 +49107,8 @@
       </c>
       <c r="Z465" s="12"/>
       <c r="AA465" s="12"/>
-      <c r="AB465" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="466" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="466" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="141">
         <v>2</v>
       </c>
@@ -50519,11 +49193,8 @@
       </c>
       <c r="Z466" s="12"/>
       <c r="AA466" s="12"/>
-      <c r="AB466" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="467" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="467" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="141">
         <v>2</v>
       </c>
@@ -50608,11 +49279,8 @@
       </c>
       <c r="Z467" s="12"/>
       <c r="AA467" s="12"/>
-      <c r="AB467" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="468" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="468" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="141">
         <v>2</v>
       </c>
@@ -50697,11 +49365,8 @@
       </c>
       <c r="Z468" s="12"/>
       <c r="AA468" s="12"/>
-      <c r="AB468" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="469" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="469" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="141">
         <v>2</v>
       </c>
@@ -50786,11 +49451,8 @@
       </c>
       <c r="Z469" s="12"/>
       <c r="AA469" s="12"/>
-      <c r="AB469" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="470" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="470" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="141">
         <v>2</v>
       </c>
@@ -50875,11 +49537,8 @@
       </c>
       <c r="Z470" s="12"/>
       <c r="AA470" s="12"/>
-      <c r="AB470" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="471" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="471" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="141">
         <v>2</v>
       </c>
@@ -50964,11 +49623,8 @@
       </c>
       <c r="Z471" s="12"/>
       <c r="AA471" s="12"/>
-      <c r="AB471" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="472" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="472" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="141">
         <v>2</v>
       </c>
@@ -51053,11 +49709,8 @@
       </c>
       <c r="Z472" s="12"/>
       <c r="AA472" s="12"/>
-      <c r="AB472" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="473" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="473" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="141">
         <v>2</v>
       </c>
@@ -51142,11 +49795,8 @@
       </c>
       <c r="Z473" s="12"/>
       <c r="AA473" s="12"/>
-      <c r="AB473" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="474" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="474" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="141">
         <v>2</v>
       </c>
@@ -51231,11 +49881,8 @@
       </c>
       <c r="Z474" s="12"/>
       <c r="AA474" s="12"/>
-      <c r="AB474" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="475" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="475" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="141">
         <v>2</v>
       </c>
@@ -51320,11 +49967,8 @@
       </c>
       <c r="Z475" s="12"/>
       <c r="AA475" s="12"/>
-      <c r="AB475" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="476" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="476" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="141">
         <v>3</v>
       </c>
@@ -51409,11 +50053,8 @@
       </c>
       <c r="Z476" s="12"/>
       <c r="AA476" s="12"/>
-      <c r="AB476" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="477" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="477" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="141">
         <v>3</v>
       </c>
@@ -51498,11 +50139,8 @@
       </c>
       <c r="Z477" s="12"/>
       <c r="AA477" s="12"/>
-      <c r="AB477" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="478" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="478" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="141">
         <v>3</v>
       </c>
@@ -51587,11 +50225,8 @@
       </c>
       <c r="Z478" s="12"/>
       <c r="AA478" s="12"/>
-      <c r="AB478" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="479" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="479" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="141">
         <v>3</v>
       </c>
@@ -51676,11 +50311,8 @@
       </c>
       <c r="Z479" s="12"/>
       <c r="AA479" s="12"/>
-      <c r="AB479" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="480" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="480" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="141">
         <v>3</v>
       </c>
@@ -51765,9 +50397,6 @@
       </c>
       <c r="Z480" s="12"/>
       <c r="AA480" s="12"/>
-      <c r="AB480" s="3">
-        <v>2</v>
-      </c>
     </row>
     <row r="481" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="141">
@@ -51854,9 +50483,6 @@
       </c>
       <c r="Z481" s="12"/>
       <c r="AA481" s="12"/>
-      <c r="AB481" s="3">
-        <v>2</v>
-      </c>
     </row>
     <row r="482" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="141">
@@ -51943,9 +50569,6 @@
       </c>
       <c r="Z482" s="12"/>
       <c r="AA482" s="12"/>
-      <c r="AB482" s="3">
-        <v>2</v>
-      </c>
     </row>
     <row r="483" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="141">
@@ -52032,9 +50655,6 @@
       </c>
       <c r="Z483" s="12"/>
       <c r="AA483" s="12"/>
-      <c r="AB483" s="3">
-        <v>2</v>
-      </c>
     </row>
     <row r="484" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="141">
@@ -52121,9 +50741,6 @@
       </c>
       <c r="Z484" s="12"/>
       <c r="AA484" s="12"/>
-      <c r="AB484" s="3">
-        <v>2</v>
-      </c>
     </row>
     <row r="485" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="141">
@@ -52212,9 +50829,6 @@
       </c>
       <c r="Z485" s="12"/>
       <c r="AA485" s="12"/>
-      <c r="AB485" s="3">
-        <v>2</v>
-      </c>
     </row>
     <row r="486" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="141">
@@ -52303,9 +50917,6 @@
       </c>
       <c r="Z486" s="12"/>
       <c r="AA486" s="12"/>
-      <c r="AB486" s="3">
-        <v>2</v>
-      </c>
       <c r="AC486" s="204" t="s">
         <v>315</v>
       </c>
@@ -52403,9 +51014,6 @@
       </c>
       <c r="Z487" s="12"/>
       <c r="AA487" s="12"/>
-      <c r="AB487" s="3">
-        <v>2</v>
-      </c>
       <c r="AC487" s="204" t="s">
         <v>315</v>
       </c>
@@ -52501,9 +51109,6 @@
       </c>
       <c r="Z488" s="12"/>
       <c r="AA488" s="12"/>
-      <c r="AB488" s="3">
-        <v>2</v>
-      </c>
       <c r="AC488" s="3" t="s">
         <v>315</v>
       </c>
@@ -52599,9 +51204,6 @@
       </c>
       <c r="Z489" s="12"/>
       <c r="AA489" s="12"/>
-      <c r="AB489" s="3">
-        <v>2</v>
-      </c>
       <c r="AC489" s="3" t="s">
         <v>315</v>
       </c>
@@ -52697,9 +51299,6 @@
       </c>
       <c r="Z490" s="12"/>
       <c r="AA490" s="12"/>
-      <c r="AB490" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="491" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="141">
@@ -52786,9 +51385,6 @@
       </c>
       <c r="Z491" s="12"/>
       <c r="AA491" s="12"/>
-      <c r="AB491" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="492" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="141">
@@ -52875,9 +51471,6 @@
       </c>
       <c r="Z492" s="12"/>
       <c r="AA492" s="12"/>
-      <c r="AB492" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="493" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="141">
@@ -52964,9 +51557,6 @@
       </c>
       <c r="Z493" s="12"/>
       <c r="AA493" s="12"/>
-      <c r="AB493" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="494" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="141">
@@ -53053,9 +51643,6 @@
       </c>
       <c r="Z494" s="12"/>
       <c r="AA494" s="12"/>
-      <c r="AB494" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="495" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="141">
@@ -53142,9 +51729,6 @@
       </c>
       <c r="Z495" s="12"/>
       <c r="AA495" s="12"/>
-      <c r="AB495" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="496" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="141">
@@ -53231,11 +51815,8 @@
       </c>
       <c r="Z496" s="12"/>
       <c r="AA496" s="12"/>
-      <c r="AB496" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="497" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="497" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="141">
         <v>1</v>
       </c>
@@ -53320,11 +51901,8 @@
       </c>
       <c r="Z497" s="12"/>
       <c r="AA497" s="12"/>
-      <c r="AB497" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="498" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="498" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="141">
         <v>1</v>
       </c>
@@ -53409,11 +51987,8 @@
       </c>
       <c r="Z498" s="12"/>
       <c r="AA498" s="12"/>
-      <c r="AB498" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="499" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="499" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="141">
         <v>2</v>
       </c>
@@ -53498,11 +52073,8 @@
       </c>
       <c r="Z499" s="12"/>
       <c r="AA499" s="12"/>
-      <c r="AB499" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="500" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="500" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="141">
         <v>2</v>
       </c>
@@ -53587,11 +52159,8 @@
       </c>
       <c r="Z500" s="12"/>
       <c r="AA500" s="12"/>
-      <c r="AB500" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="501" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="501" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="141">
         <v>2</v>
       </c>
@@ -53676,11 +52245,8 @@
       </c>
       <c r="Z501" s="12"/>
       <c r="AA501" s="12"/>
-      <c r="AB501" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="502" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="502" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="141">
         <v>2</v>
       </c>
@@ -53765,11 +52331,8 @@
       </c>
       <c r="Z502" s="12"/>
       <c r="AA502" s="12"/>
-      <c r="AB502" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="503" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="503" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="141">
         <v>2</v>
       </c>
@@ -53854,11 +52417,8 @@
       </c>
       <c r="Z503" s="12"/>
       <c r="AA503" s="12"/>
-      <c r="AB503" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="504" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="504" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="141">
         <v>2</v>
       </c>
@@ -53943,11 +52503,8 @@
       </c>
       <c r="Z504" s="12"/>
       <c r="AA504" s="12"/>
-      <c r="AB504" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="505" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="505" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="141">
         <v>2</v>
       </c>
@@ -54032,11 +52589,8 @@
       </c>
       <c r="Z505" s="12"/>
       <c r="AA505" s="12"/>
-      <c r="AB505" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="506" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="506" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="141">
         <v>2</v>
       </c>
@@ -54121,11 +52675,8 @@
       </c>
       <c r="Z506" s="12"/>
       <c r="AA506" s="12"/>
-      <c r="AB506" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="507" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="507" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="141">
         <v>2</v>
       </c>
@@ -54210,11 +52761,8 @@
       </c>
       <c r="Z507" s="12"/>
       <c r="AA507" s="12"/>
-      <c r="AB507" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="508" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="508" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="141">
         <v>2</v>
       </c>
@@ -54298,11 +52846,8 @@
       </c>
       <c r="Z508" s="12"/>
       <c r="AA508" s="12"/>
-      <c r="AB508" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="509" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="509" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="141">
         <v>2</v>
       </c>
@@ -54387,11 +52932,8 @@
       </c>
       <c r="Z509" s="12"/>
       <c r="AA509" s="12"/>
-      <c r="AB509" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="510" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="510" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="141">
         <v>2</v>
       </c>
@@ -54476,11 +53018,8 @@
       </c>
       <c r="Z510" s="12"/>
       <c r="AA510" s="12"/>
-      <c r="AB510" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="511" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="511" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="141">
         <v>3</v>
       </c>
@@ -54565,11 +53104,8 @@
       </c>
       <c r="Z511" s="12"/>
       <c r="AA511" s="12"/>
-      <c r="AB511" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="512" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="512" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="141">
         <v>3</v>
       </c>
@@ -54654,9 +53190,6 @@
       </c>
       <c r="Z512" s="12"/>
       <c r="AA512" s="12"/>
-      <c r="AB512" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="513" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="141">
@@ -54743,9 +53276,6 @@
       </c>
       <c r="Z513" s="12"/>
       <c r="AA513" s="12"/>
-      <c r="AB513" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="514" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="141">
@@ -54832,9 +53362,6 @@
       </c>
       <c r="Z514" s="12"/>
       <c r="AA514" s="12"/>
-      <c r="AB514" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="515" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="141">
@@ -54921,9 +53448,6 @@
       </c>
       <c r="Z515" s="12"/>
       <c r="AA515" s="12"/>
-      <c r="AB515" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="516" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="141">
@@ -55010,9 +53534,6 @@
       </c>
       <c r="Z516" s="12"/>
       <c r="AA516" s="12"/>
-      <c r="AB516" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="517" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="141">
@@ -55099,9 +53620,6 @@
       </c>
       <c r="Z517" s="12"/>
       <c r="AA517" s="12"/>
-      <c r="AB517" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="518" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="141">
@@ -55188,9 +53706,6 @@
       </c>
       <c r="Z518" s="12"/>
       <c r="AA518" s="12"/>
-      <c r="AB518" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="519" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="141">
@@ -55277,9 +53792,6 @@
       </c>
       <c r="Z519" s="12"/>
       <c r="AA519" s="12"/>
-      <c r="AB519" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="520" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="141">
@@ -55368,9 +53880,6 @@
       </c>
       <c r="Z520" s="12"/>
       <c r="AA520" s="12"/>
-      <c r="AB520" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="521" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="141">
@@ -55459,9 +53968,6 @@
       </c>
       <c r="Z521" s="12"/>
       <c r="AA521" s="12"/>
-      <c r="AB521" s="3">
-        <v>1</v>
-      </c>
       <c r="AC521" s="204" t="s">
         <v>315</v>
       </c>
@@ -55559,9 +54065,6 @@
       </c>
       <c r="Z522" s="12"/>
       <c r="AA522" s="12"/>
-      <c r="AB522" s="3">
-        <v>1</v>
-      </c>
       <c r="AC522" s="204" t="s">
         <v>315</v>
       </c>
@@ -55657,9 +54160,6 @@
       </c>
       <c r="Z523" s="12"/>
       <c r="AA523" s="12"/>
-      <c r="AB523" s="3">
-        <v>1</v>
-      </c>
       <c r="AC523" s="3" t="s">
         <v>315</v>
       </c>
@@ -55755,9 +54255,6 @@
       </c>
       <c r="Z524" s="12"/>
       <c r="AA524" s="12"/>
-      <c r="AB524" s="3">
-        <v>1</v>
-      </c>
       <c r="AC524" s="3" t="s">
         <v>315</v>
       </c>
@@ -55939,9 +54436,6 @@
       </c>
       <c r="Z526" s="12"/>
       <c r="AA526" s="12"/>
-      <c r="AB526" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="527" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="141">
@@ -56028,9 +54522,6 @@
       </c>
       <c r="Z527" s="12"/>
       <c r="AA527" s="12"/>
-      <c r="AB527" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="528" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="141">
@@ -56117,11 +54608,8 @@
       </c>
       <c r="Z528" s="12"/>
       <c r="AA528" s="12"/>
-      <c r="AB528" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="529" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="529" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="141">
         <v>2</v>
       </c>
@@ -56206,11 +54694,8 @@
       </c>
       <c r="Z529" s="12"/>
       <c r="AA529" s="12"/>
-      <c r="AB529" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="530" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="530" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="141">
         <v>2</v>
       </c>
@@ -56295,11 +54780,8 @@
       </c>
       <c r="Z530" s="12"/>
       <c r="AA530" s="12"/>
-      <c r="AB530" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="531" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="531" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="141">
         <v>2</v>
       </c>
@@ -56384,11 +54866,8 @@
       </c>
       <c r="Z531" s="12"/>
       <c r="AA531" s="12"/>
-      <c r="AB531" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="532" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="532" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="141">
         <v>2</v>
       </c>
@@ -56473,11 +54952,8 @@
       </c>
       <c r="Z532" s="12"/>
       <c r="AA532" s="12"/>
-      <c r="AB532" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="533" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="533" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="141">
         <v>2</v>
       </c>
@@ -56562,11 +55038,8 @@
       </c>
       <c r="Z533" s="12"/>
       <c r="AA533" s="12"/>
-      <c r="AB533" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="534" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="534" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="141">
         <v>2</v>
       </c>
@@ -56651,11 +55124,8 @@
       </c>
       <c r="Z534" s="12"/>
       <c r="AA534" s="12"/>
-      <c r="AB534" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="535" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="535" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="141">
         <v>2</v>
       </c>
@@ -56740,11 +55210,8 @@
       </c>
       <c r="Z535" s="12"/>
       <c r="AA535" s="12"/>
-      <c r="AB535" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="536" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="536" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="141">
         <v>2</v>
       </c>
@@ -56829,11 +55296,8 @@
       </c>
       <c r="Z536" s="12"/>
       <c r="AA536" s="12"/>
-      <c r="AB536" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="537" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="537" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="141">
         <v>3</v>
       </c>
@@ -56918,11 +55382,8 @@
       </c>
       <c r="Z537" s="12"/>
       <c r="AA537" s="12"/>
-      <c r="AB537" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="538" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="538" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="141">
         <v>3</v>
       </c>
@@ -57007,11 +55468,8 @@
       </c>
       <c r="Z538" s="12"/>
       <c r="AA538" s="12"/>
-      <c r="AB538" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="539" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="539" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="141">
         <v>3</v>
       </c>
@@ -57096,11 +55554,8 @@
       </c>
       <c r="Z539" s="12"/>
       <c r="AA539" s="12"/>
-      <c r="AB539" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="540" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="540" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="141">
         <v>3</v>
       </c>
@@ -57185,11 +55640,8 @@
       </c>
       <c r="Z540" s="12"/>
       <c r="AA540" s="12"/>
-      <c r="AB540" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="541" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="541" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="141">
         <v>3</v>
       </c>
@@ -57274,11 +55726,8 @@
       </c>
       <c r="Z541" s="12"/>
       <c r="AA541" s="12"/>
-      <c r="AB541" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="542" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="542" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="141">
         <v>3</v>
       </c>
@@ -57363,11 +55812,8 @@
       </c>
       <c r="Z542" s="12"/>
       <c r="AA542" s="12"/>
-      <c r="AB542" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="543" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="543" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="141">
         <v>3</v>
       </c>
@@ -57452,11 +55898,8 @@
       </c>
       <c r="Z543" s="12"/>
       <c r="AA543" s="12"/>
-      <c r="AB543" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="544" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="544" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="141">
         <v>3</v>
       </c>
@@ -57541,9 +55984,6 @@
       </c>
       <c r="Z544" s="12"/>
       <c r="AA544" s="12"/>
-      <c r="AB544" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="545" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="141">
@@ -57630,9 +56070,6 @@
       </c>
       <c r="Z545" s="12"/>
       <c r="AA545" s="12"/>
-      <c r="AB545" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="546" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="141">
@@ -57721,9 +56158,6 @@
       </c>
       <c r="Z546" s="12"/>
       <c r="AA546" s="12"/>
-      <c r="AB546" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="547" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="141">
@@ -57812,9 +56246,6 @@
       </c>
       <c r="Z547" s="12"/>
       <c r="AA547" s="12"/>
-      <c r="AB547" s="3">
-        <v>1</v>
-      </c>
       <c r="AC547" s="204" t="s">
         <v>315</v>
       </c>
@@ -57912,9 +56343,6 @@
       </c>
       <c r="Z548" s="12"/>
       <c r="AA548" s="12"/>
-      <c r="AB548" s="3">
-        <v>1</v>
-      </c>
       <c r="AC548" s="204" t="s">
         <v>315</v>
       </c>
@@ -58010,9 +56438,6 @@
       </c>
       <c r="Z549" s="12"/>
       <c r="AA549" s="12"/>
-      <c r="AB549" s="3">
-        <v>1</v>
-      </c>
       <c r="AC549" s="3" t="s">
         <v>315</v>
       </c>
@@ -58108,9 +56533,6 @@
       </c>
       <c r="Z550" s="12"/>
       <c r="AA550" s="12"/>
-      <c r="AB550" s="3">
-        <v>1</v>
-      </c>
       <c r="AC550" s="3" t="s">
         <v>315</v>
       </c>
@@ -58290,9 +56712,6 @@
       <c r="Y552" s="12"/>
       <c r="Z552" s="12"/>
       <c r="AA552" s="12"/>
-      <c r="AB552" s="3">
-        <v>2</v>
-      </c>
       <c r="AC552" s="3" t="s">
         <v>315</v>
       </c>
@@ -58472,9 +56891,6 @@
       </c>
       <c r="Z554" s="12"/>
       <c r="AA554" s="12"/>
-      <c r="AB554" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="555" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="141">
@@ -58563,9 +56979,6 @@
       </c>
       <c r="Z555" s="12"/>
       <c r="AA555" s="12"/>
-      <c r="AB555" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="556" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="141">
@@ -58654,9 +57067,6 @@
       </c>
       <c r="Z556" s="12"/>
       <c r="AA556" s="12"/>
-      <c r="AB556" s="3">
-        <v>1</v>
-      </c>
       <c r="AC556" s="204" t="s">
         <v>315</v>
       </c>
@@ -58754,9 +57164,6 @@
       </c>
       <c r="Z557" s="12"/>
       <c r="AA557" s="12"/>
-      <c r="AB557" s="3">
-        <v>1</v>
-      </c>
       <c r="AC557" s="204" t="s">
         <v>315</v>
       </c>
@@ -58852,9 +57259,6 @@
       </c>
       <c r="Z558" s="12"/>
       <c r="AA558" s="12"/>
-      <c r="AB558" s="3">
-        <v>1</v>
-      </c>
       <c r="AC558" s="3" t="s">
         <v>315</v>
       </c>
@@ -58950,9 +57354,6 @@
       </c>
       <c r="Z559" s="12"/>
       <c r="AA559" s="12"/>
-      <c r="AB559" s="3">
-        <v>1</v>
-      </c>
       <c r="AC559" s="3" t="s">
         <v>315</v>
       </c>
@@ -59049,7 +57450,7 @@
       <c r="Z560" s="12"/>
       <c r="AA560" s="12"/>
     </row>
-    <row r="561" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="141">
         <v>1</v>
       </c>
@@ -59134,11 +57535,8 @@
       </c>
       <c r="Z561" s="12"/>
       <c r="AA561" s="12"/>
-      <c r="AB561" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="562" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="562" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="141">
         <v>1</v>
       </c>
@@ -59223,11 +57621,8 @@
       </c>
       <c r="Z562" s="12"/>
       <c r="AA562" s="12"/>
-      <c r="AB562" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="563" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="563" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="141">
         <v>1</v>
       </c>
@@ -59312,11 +57707,8 @@
       </c>
       <c r="Z563" s="12"/>
       <c r="AA563" s="12"/>
-      <c r="AB563" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="564" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="564" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="141">
         <v>1</v>
       </c>
@@ -59401,11 +57793,8 @@
       </c>
       <c r="Z564" s="12"/>
       <c r="AA564" s="12"/>
-      <c r="AB564" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="565" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="565" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="141">
         <v>1</v>
       </c>
@@ -59490,11 +57879,8 @@
       </c>
       <c r="Z565" s="12"/>
       <c r="AA565" s="12"/>
-      <c r="AB565" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="566" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="566" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="141">
         <v>2</v>
       </c>
@@ -59579,11 +57965,8 @@
       </c>
       <c r="Z566" s="12"/>
       <c r="AA566" s="12"/>
-      <c r="AB566" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="567" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="567" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="141">
         <v>2</v>
       </c>
@@ -59668,11 +58051,8 @@
       </c>
       <c r="Z567" s="12"/>
       <c r="AA567" s="12"/>
-      <c r="AB567" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="568" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="568" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="141">
         <v>2</v>
       </c>
@@ -59757,11 +58137,8 @@
       </c>
       <c r="Z568" s="12"/>
       <c r="AA568" s="12"/>
-      <c r="AB568" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="569" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="569" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="141">
         <v>2</v>
       </c>
@@ -59846,11 +58223,8 @@
       </c>
       <c r="Z569" s="12"/>
       <c r="AA569" s="12"/>
-      <c r="AB569" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="570" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="570" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="141">
         <v>2</v>
       </c>
@@ -59935,11 +58309,8 @@
       </c>
       <c r="Z570" s="12"/>
       <c r="AA570" s="12"/>
-      <c r="AB570" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="571" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="571" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="141">
         <v>2</v>
       </c>
@@ -60024,11 +58395,8 @@
       </c>
       <c r="Z571" s="12"/>
       <c r="AA571" s="12"/>
-      <c r="AB571" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="572" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="572" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="141">
         <v>2</v>
       </c>
@@ -60113,11 +58481,8 @@
       </c>
       <c r="Z572" s="12"/>
       <c r="AA572" s="12"/>
-      <c r="AB572" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="573" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="573" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="141">
         <v>2</v>
       </c>
@@ -60202,11 +58567,8 @@
       </c>
       <c r="Z573" s="12"/>
       <c r="AA573" s="12"/>
-      <c r="AB573" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="574" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="574" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="141">
         <v>2</v>
       </c>
@@ -60291,11 +58653,8 @@
       </c>
       <c r="Z574" s="12"/>
       <c r="AA574" s="12"/>
-      <c r="AB574" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="575" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="575" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="141">
         <v>2</v>
       </c>
@@ -60380,11 +58739,8 @@
       </c>
       <c r="Z575" s="12"/>
       <c r="AA575" s="12"/>
-      <c r="AB575" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="576" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="576" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="141">
         <v>2</v>
       </c>
@@ -60469,9 +58825,6 @@
       </c>
       <c r="Z576" s="12"/>
       <c r="AA576" s="12"/>
-      <c r="AB576" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="577" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="141">
@@ -60558,9 +58911,6 @@
       </c>
       <c r="Z577" s="12"/>
       <c r="AA577" s="12"/>
-      <c r="AB577" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="578" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="141">
@@ -60647,9 +58997,6 @@
       </c>
       <c r="Z578" s="12"/>
       <c r="AA578" s="12"/>
-      <c r="AB578" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="579" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="141">
@@ -60736,9 +59083,6 @@
       </c>
       <c r="Z579" s="12"/>
       <c r="AA579" s="12"/>
-      <c r="AB579" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="580" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="141">
@@ -60825,9 +59169,6 @@
       </c>
       <c r="Z580" s="12"/>
       <c r="AA580" s="12"/>
-      <c r="AB580" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="581" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="141">
@@ -60914,9 +59255,6 @@
       </c>
       <c r="Z581" s="12"/>
       <c r="AA581" s="12"/>
-      <c r="AB581" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="582" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="141">
@@ -61003,9 +59341,6 @@
       </c>
       <c r="Z582" s="12"/>
       <c r="AA582" s="12"/>
-      <c r="AB582" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="583" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="141">
@@ -61092,9 +59427,6 @@
       </c>
       <c r="Z583" s="12"/>
       <c r="AA583" s="12"/>
-      <c r="AB583" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="584" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="141">
@@ -61181,9 +59513,6 @@
       </c>
       <c r="Z584" s="12"/>
       <c r="AA584" s="12"/>
-      <c r="AB584" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="585" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="141">
@@ -61270,9 +59599,6 @@
       </c>
       <c r="Z585" s="12"/>
       <c r="AA585" s="12"/>
-      <c r="AB585" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="586" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="141">
@@ -61359,9 +59685,6 @@
       </c>
       <c r="Z586" s="12"/>
       <c r="AA586" s="12"/>
-      <c r="AB586" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="587" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="141">
@@ -61450,9 +59773,6 @@
       </c>
       <c r="Z587" s="12"/>
       <c r="AA587" s="12"/>
-      <c r="AB587" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="588" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="141">
@@ -61541,9 +59861,6 @@
       </c>
       <c r="Z588" s="12"/>
       <c r="AA588" s="12"/>
-      <c r="AB588" s="3">
-        <v>1</v>
-      </c>
       <c r="AC588" s="204" t="s">
         <v>315</v>
       </c>
@@ -61641,9 +59958,6 @@
       </c>
       <c r="Z589" s="12"/>
       <c r="AA589" s="12"/>
-      <c r="AB589" s="3">
-        <v>1</v>
-      </c>
       <c r="AC589" s="204" t="s">
         <v>315</v>
       </c>
@@ -61739,9 +60053,6 @@
       </c>
       <c r="Z590" s="12"/>
       <c r="AA590" s="12"/>
-      <c r="AB590" s="3">
-        <v>1</v>
-      </c>
       <c r="AC590" s="3" t="s">
         <v>315</v>
       </c>
@@ -61837,9 +60148,6 @@
       </c>
       <c r="Z591" s="12"/>
       <c r="AA591" s="12"/>
-      <c r="AB591" s="3">
-        <v>1</v>
-      </c>
       <c r="AC591" s="3" t="s">
         <v>315</v>
       </c>
@@ -62019,9 +60327,6 @@
       </c>
       <c r="Z593" s="12"/>
       <c r="AA593" s="12"/>
-      <c r="AB593" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="594" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="141">
@@ -62108,9 +60413,6 @@
       </c>
       <c r="Z594" s="12"/>
       <c r="AA594" s="12"/>
-      <c r="AB594" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="595" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="141">
@@ -62199,9 +60501,6 @@
       </c>
       <c r="Z595" s="12"/>
       <c r="AA595" s="12"/>
-      <c r="AB595" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="596" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="141">
@@ -62290,9 +60589,6 @@
       </c>
       <c r="Z596" s="12"/>
       <c r="AA596" s="12"/>
-      <c r="AB596" s="3">
-        <v>1</v>
-      </c>
       <c r="AC596" s="204" t="s">
         <v>315</v>
       </c>
@@ -62390,9 +60686,6 @@
       </c>
       <c r="Z597" s="12"/>
       <c r="AA597" s="12"/>
-      <c r="AB597" s="3">
-        <v>1</v>
-      </c>
       <c r="AC597" s="204" t="s">
         <v>315</v>
       </c>
@@ -62488,9 +60781,6 @@
       </c>
       <c r="Z598" s="12"/>
       <c r="AA598" s="12"/>
-      <c r="AB598" s="3">
-        <v>1</v>
-      </c>
       <c r="AC598" s="3" t="s">
         <v>315</v>
       </c>
@@ -62586,9 +60876,6 @@
       </c>
       <c r="Z599" s="12"/>
       <c r="AA599" s="12"/>
-      <c r="AB599" s="3">
-        <v>1</v>
-      </c>
       <c r="AC599" s="3" t="s">
         <v>315</v>
       </c>
@@ -62773,9 +61060,6 @@
       </c>
       <c r="Z601" s="12"/>
       <c r="AA601" s="12"/>
-      <c r="AB601" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="602" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="141">
@@ -62862,9 +61146,6 @@
       </c>
       <c r="Z602" s="12"/>
       <c r="AA602" s="12"/>
-      <c r="AB602" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="603" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="141">
@@ -62951,9 +61232,6 @@
       </c>
       <c r="Z603" s="12"/>
       <c r="AA603" s="12"/>
-      <c r="AB603" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="604" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="141">
@@ -63040,9 +61318,6 @@
       </c>
       <c r="Z604" s="12"/>
       <c r="AA604" s="12"/>
-      <c r="AB604" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="605" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="141">
@@ -63129,9 +61404,6 @@
       </c>
       <c r="Z605" s="12"/>
       <c r="AA605" s="12"/>
-      <c r="AB605" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="606" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="141">
@@ -63218,9 +61490,6 @@
       </c>
       <c r="Z606" s="12"/>
       <c r="AA606" s="12"/>
-      <c r="AB606" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="607" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="141">
@@ -63307,9 +61576,6 @@
       </c>
       <c r="Z607" s="12"/>
       <c r="AA607" s="12"/>
-      <c r="AB607" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="608" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="141">
@@ -63396,11 +61662,8 @@
       </c>
       <c r="Z608" s="12"/>
       <c r="AA608" s="12"/>
-      <c r="AB608" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="609" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="609" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="141">
         <v>2</v>
       </c>
@@ -63485,11 +61748,8 @@
       </c>
       <c r="Z609" s="12"/>
       <c r="AA609" s="12"/>
-      <c r="AB609" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="610" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="610" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="141">
         <v>2</v>
       </c>
@@ -63574,11 +61834,8 @@
       </c>
       <c r="Z610" s="12"/>
       <c r="AA610" s="12"/>
-      <c r="AB610" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="611" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="611" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="141">
         <v>2</v>
       </c>
@@ -63663,11 +61920,8 @@
       </c>
       <c r="Z611" s="12"/>
       <c r="AA611" s="12"/>
-      <c r="AB611" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="612" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="612" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="141">
         <v>2</v>
       </c>
@@ -63752,11 +62006,8 @@
       </c>
       <c r="Z612" s="12"/>
       <c r="AA612" s="12"/>
-      <c r="AB612" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="613" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="613" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="141">
         <v>2</v>
       </c>
@@ -63841,11 +62092,8 @@
       </c>
       <c r="Z613" s="12"/>
       <c r="AA613" s="12"/>
-      <c r="AB613" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="614" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="614" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="141">
         <v>2</v>
       </c>
@@ -63930,11 +62178,8 @@
       </c>
       <c r="Z614" s="12"/>
       <c r="AA614" s="12"/>
-      <c r="AB614" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="615" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="615" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="141">
         <v>2</v>
       </c>
@@ -64018,11 +62263,8 @@
       </c>
       <c r="Z615" s="12"/>
       <c r="AA615" s="12"/>
-      <c r="AB615" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="616" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="616" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="141">
         <v>2</v>
       </c>
@@ -64106,11 +62348,8 @@
       </c>
       <c r="Z616" s="12"/>
       <c r="AA616" s="12"/>
-      <c r="AB616" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="617" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="617" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="141">
         <v>2</v>
       </c>
@@ -64195,11 +62434,8 @@
       </c>
       <c r="Z617" s="12"/>
       <c r="AA617" s="12"/>
-      <c r="AB617" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="618" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="618" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="141">
         <v>3</v>
       </c>
@@ -64283,11 +62519,8 @@
       </c>
       <c r="Z618" s="12"/>
       <c r="AA618" s="12"/>
-      <c r="AB618" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="619" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="619" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="141">
         <v>3</v>
       </c>
@@ -64372,11 +62605,8 @@
       </c>
       <c r="Z619" s="12"/>
       <c r="AA619" s="12"/>
-      <c r="AB619" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="620" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="620" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="141">
         <v>3</v>
       </c>
@@ -64461,11 +62691,8 @@
       </c>
       <c r="Z620" s="12"/>
       <c r="AA620" s="12"/>
-      <c r="AB620" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="621" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="621" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="141">
         <v>3</v>
       </c>
@@ -64550,11 +62777,8 @@
       </c>
       <c r="Z621" s="12"/>
       <c r="AA621" s="12"/>
-      <c r="AB621" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="622" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="622" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="141">
         <v>3</v>
       </c>
@@ -64639,11 +62863,8 @@
       </c>
       <c r="Z622" s="12"/>
       <c r="AA622" s="12"/>
-      <c r="AB622" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="623" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="623" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="141">
         <v>3</v>
       </c>
@@ -64728,11 +62949,8 @@
       </c>
       <c r="Z623" s="12"/>
       <c r="AA623" s="12"/>
-      <c r="AB623" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="624" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="624" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="141">
         <v>3</v>
       </c>
@@ -64817,9 +63035,6 @@
       </c>
       <c r="Z624" s="12"/>
       <c r="AA624" s="12"/>
-      <c r="AB624" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="625" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="141">
@@ -64906,9 +63121,6 @@
       </c>
       <c r="Z625" s="12"/>
       <c r="AA625" s="12"/>
-      <c r="AB625" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="626" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="141">
@@ -64995,9 +63207,6 @@
       </c>
       <c r="Z626" s="12"/>
       <c r="AA626" s="12"/>
-      <c r="AB626" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="627" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="141">
@@ -65086,9 +63295,6 @@
       </c>
       <c r="Z627" s="12"/>
       <c r="AA627" s="12"/>
-      <c r="AB627" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="628" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="141">
@@ -65177,9 +63383,6 @@
       </c>
       <c r="Z628" s="12"/>
       <c r="AA628" s="12"/>
-      <c r="AB628" s="3">
-        <v>1</v>
-      </c>
       <c r="AC628" s="204" t="s">
         <v>315</v>
       </c>
@@ -65277,9 +63480,6 @@
       </c>
       <c r="Z629" s="12"/>
       <c r="AA629" s="12"/>
-      <c r="AB629" s="3">
-        <v>1</v>
-      </c>
       <c r="AC629" s="204" t="s">
         <v>315</v>
       </c>
@@ -65375,9 +63575,6 @@
       </c>
       <c r="Z630" s="12"/>
       <c r="AA630" s="12"/>
-      <c r="AB630" s="3">
-        <v>1</v>
-      </c>
       <c r="AC630" s="3" t="s">
         <v>315</v>
       </c>
@@ -65473,9 +63670,6 @@
       </c>
       <c r="Z631" s="12"/>
       <c r="AA631" s="12"/>
-      <c r="AB631" s="3">
-        <v>1</v>
-      </c>
       <c r="AC631" s="3" t="s">
         <v>315</v>
       </c>
@@ -65660,9 +63854,6 @@
       </c>
       <c r="Z633" s="12"/>
       <c r="AA633" s="12"/>
-      <c r="AB633" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="634" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="141">
@@ -65749,9 +63940,6 @@
       </c>
       <c r="Z634" s="12"/>
       <c r="AA634" s="12"/>
-      <c r="AB634" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="635" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="141">
@@ -65838,9 +64026,6 @@
       </c>
       <c r="Z635" s="12"/>
       <c r="AA635" s="12"/>
-      <c r="AB635" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="636" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="141">
@@ -65927,9 +64112,6 @@
       </c>
       <c r="Z636" s="12"/>
       <c r="AA636" s="12"/>
-      <c r="AB636" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="637" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="141">
@@ -66016,9 +64198,6 @@
       </c>
       <c r="Z637" s="12"/>
       <c r="AA637" s="12"/>
-      <c r="AB637" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="638" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="141">
@@ -66107,9 +64286,6 @@
       </c>
       <c r="Z638" s="12"/>
       <c r="AA638" s="12"/>
-      <c r="AB638" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="639" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="141">
@@ -66198,9 +64374,6 @@
       </c>
       <c r="Z639" s="12"/>
       <c r="AA639" s="12"/>
-      <c r="AB639" s="3">
-        <v>1</v>
-      </c>
       <c r="AC639" s="204" t="s">
         <v>315</v>
       </c>
@@ -66298,9 +64471,6 @@
       </c>
       <c r="Z640" s="12"/>
       <c r="AA640" s="12"/>
-      <c r="AB640" s="3">
-        <v>1</v>
-      </c>
       <c r="AC640" s="204" t="s">
         <v>315</v>
       </c>
@@ -66396,9 +64566,6 @@
       </c>
       <c r="Z641" s="12"/>
       <c r="AA641" s="12"/>
-      <c r="AB641" s="3">
-        <v>1</v>
-      </c>
       <c r="AC641" s="3" t="s">
         <v>315</v>
       </c>
@@ -66494,9 +64661,6 @@
       </c>
       <c r="Z642" s="12"/>
       <c r="AA642" s="12"/>
-      <c r="AB642" s="3">
-        <v>1</v>
-      </c>
       <c r="AC642" s="3" t="s">
         <v>315</v>
       </c>
@@ -66677,9 +64841,6 @@
       </c>
       <c r="Z644" s="12"/>
       <c r="AA644" s="12"/>
-      <c r="AB644" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="645" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="141">
@@ -66765,9 +64926,6 @@
       </c>
       <c r="Z645" s="12"/>
       <c r="AA645" s="12"/>
-      <c r="AB645" s="3">
-        <v>1</v>
-      </c>
       <c r="AC645" s="204" t="s">
         <v>315</v>
       </c>
@@ -66862,9 +65020,6 @@
       </c>
       <c r="Z646" s="12"/>
       <c r="AA646" s="12"/>
-      <c r="AB646" s="3">
-        <v>1</v>
-      </c>
       <c r="AC646" s="204" t="s">
         <v>315</v>
       </c>
@@ -66957,9 +65112,6 @@
       </c>
       <c r="Z647" s="12"/>
       <c r="AA647" s="12"/>
-      <c r="AB647" s="3">
-        <v>1</v>
-      </c>
       <c r="AC647" s="3" t="s">
         <v>315</v>
       </c>
@@ -67052,9 +65204,6 @@
       </c>
       <c r="Z648" s="12"/>
       <c r="AA648" s="12"/>
-      <c r="AB648" s="3">
-        <v>1</v>
-      </c>
       <c r="AC648" s="3" t="s">
         <v>315</v>
       </c>
@@ -67235,9 +65384,6 @@
       </c>
       <c r="Z650" s="12"/>
       <c r="AA650" s="12"/>
-      <c r="AB650" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="651" spans="1:31" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="141">
@@ -67324,9 +65470,6 @@
       </c>
       <c r="Z651" s="12"/>
       <c r="AA651" s="12"/>
-      <c r="AB651" s="3">
-        <v>1</v>
-      </c>
       <c r="AC651" s="204" t="s">
         <v>315</v>
       </c>
@@ -67422,9 +65565,6 @@
       </c>
       <c r="Z652" s="12"/>
       <c r="AA652" s="12"/>
-      <c r="AB652" s="3">
-        <v>1</v>
-      </c>
       <c r="AC652" s="204" t="s">
         <v>315</v>
       </c>
@@ -67518,9 +65658,6 @@
       </c>
       <c r="Z653" s="12"/>
       <c r="AA653" s="12"/>
-      <c r="AB653" s="3">
-        <v>1</v>
-      </c>
       <c r="AC653" s="3" t="s">
         <v>315</v>
       </c>
@@ -67614,9 +65751,6 @@
       </c>
       <c r="Z654" s="12"/>
       <c r="AA654" s="12"/>
-      <c r="AB654" s="3">
-        <v>1</v>
-      </c>
       <c r="AC654" s="3" t="s">
         <v>315</v>
       </c>
@@ -67798,11 +65932,8 @@
       </c>
       <c r="Z656" s="12"/>
       <c r="AA656" s="12"/>
-      <c r="AB656" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="657" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="657" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="141">
         <v>1</v>
       </c>
@@ -67887,11 +66018,8 @@
       </c>
       <c r="Z657" s="12"/>
       <c r="AA657" s="12"/>
-      <c r="AB657" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="658" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="658" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="141">
         <v>1</v>
       </c>
@@ -67976,11 +66104,8 @@
       </c>
       <c r="Z658" s="12"/>
       <c r="AA658" s="12"/>
-      <c r="AB658" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="659" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="659" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="141">
         <v>1</v>
       </c>
@@ -68065,11 +66190,8 @@
       </c>
       <c r="Z659" s="12"/>
       <c r="AA659" s="12"/>
-      <c r="AB659" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="660" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="660" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="141">
         <v>1</v>
       </c>
@@ -68154,11 +66276,8 @@
       </c>
       <c r="Z660" s="12"/>
       <c r="AA660" s="12"/>
-      <c r="AB660" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="661" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="661" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="141">
         <v>1</v>
       </c>
@@ -68243,11 +66362,8 @@
       </c>
       <c r="Z661" s="12"/>
       <c r="AA661" s="12"/>
-      <c r="AB661" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="662" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="662" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="141">
         <v>2</v>
       </c>
@@ -68332,11 +66448,8 @@
       </c>
       <c r="Z662" s="12"/>
       <c r="AA662" s="12"/>
-      <c r="AB662" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="663" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="663" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="141">
         <v>2</v>
       </c>
@@ -68421,11 +66534,8 @@
       </c>
       <c r="Z663" s="12"/>
       <c r="AA663" s="12"/>
-      <c r="AB663" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="664" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="664" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="141">
         <v>2</v>
       </c>
@@ -68510,11 +66620,8 @@
       </c>
       <c r="Z664" s="12"/>
       <c r="AA664" s="12"/>
-      <c r="AB664" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="665" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="665" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="141">
         <v>2</v>
       </c>
@@ -68599,11 +66706,8 @@
       </c>
       <c r="Z665" s="12"/>
       <c r="AA665" s="12"/>
-      <c r="AB665" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="666" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="666" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="141">
         <v>2</v>
       </c>
@@ -68688,11 +66792,8 @@
       </c>
       <c r="Z666" s="12"/>
       <c r="AA666" s="12"/>
-      <c r="AB666" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="667" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="667" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="141">
         <v>2</v>
       </c>
@@ -68777,11 +66878,8 @@
       </c>
       <c r="Z667" s="12"/>
       <c r="AA667" s="12"/>
-      <c r="AB667" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="668" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="668" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="141">
         <v>2</v>
       </c>
@@ -68866,11 +66964,8 @@
       </c>
       <c r="Z668" s="12"/>
       <c r="AA668" s="12"/>
-      <c r="AB668" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="669" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="669" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="141">
         <v>2</v>
       </c>
@@ -68955,11 +67050,8 @@
       </c>
       <c r="Z669" s="12"/>
       <c r="AA669" s="12"/>
-      <c r="AB669" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="670" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="670" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="141"/>
       <c r="B670" s="99"/>
       <c r="C670" s="95"/>
@@ -68988,7 +67080,7 @@
       <c r="Z670" s="12"/>
       <c r="AA670" s="12"/>
     </row>
-    <row r="671" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="141"/>
       <c r="B671" s="99"/>
       <c r="C671" s="95"/>
@@ -69017,7 +67109,7 @@
       <c r="Z671" s="12"/>
       <c r="AA671" s="12"/>
     </row>
-    <row r="672" spans="1:28" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:27" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="141"/>
       <c r="B672" s="99"/>
       <c r="C672" s="95"/>
@@ -69520,7 +67612,7 @@
       <selection pane="bottomLeft" activeCell="H77" sqref="H77"/>
       <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.35433070866141736" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A4:AV400" xr:uid="{F0369B1F-B921-4DAE-8690-5999A54B939E}">
+      <autoFilter ref="A4:AV400" xr:uid="{8E5608E1-DFA5-4D19-A464-AE723D979F78}">
         <filterColumn colId="6">
           <filters>
             <filter val="2019.06"/>
